--- a/Bibsam_tidskriftslistor/scifree_data_iop.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_iop.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="258">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -784,6 +784,15 @@
   </si>
   <si>
     <t>http://iopscience.iop.org/nf</t>
+  </si>
+  <si>
+    <t>1367-2630</t>
+  </si>
+  <si>
+    <t>New Journal of Physics</t>
+  </si>
+  <si>
+    <t>http://iopscience.iop.org/njp</t>
   </si>
 </sst>
 </file>
@@ -845,43 +854,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -913,10 +886,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G71" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:G71"/>
-  <sortState ref="A2:G71">
-    <sortCondition ref="D1:D71"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G72" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:G72"/>
+  <sortState ref="A2:G72">
+    <sortCondition ref="D1:D72"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Imprint"/>
@@ -1194,7 +1167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2346,19 +2319,16 @@
         <v>181</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" t="s">
-        <v>65</v>
+        <v>255</v>
       </c>
       <c r="D54" t="s">
-        <v>118</v>
+        <v>256</v>
       </c>
       <c r="E54" t="s">
-        <v>167</v>
+        <v>257</v>
       </c>
       <c r="F54" t="s">
-        <v>7</v>
+        <v>224</v>
       </c>
       <c r="G54" t="s">
         <v>8</v>
@@ -2369,13 +2339,16 @@
         <v>181</v>
       </c>
       <c r="B55" t="s">
-        <v>244</v>
+        <v>64</v>
+      </c>
+      <c r="C55" t="s">
+        <v>65</v>
       </c>
       <c r="D55" t="s">
-        <v>234</v>
+        <v>118</v>
       </c>
       <c r="E55" t="s">
-        <v>254</v>
+        <v>167</v>
       </c>
       <c r="F55" t="s">
         <v>7</v>
@@ -2389,16 +2362,13 @@
         <v>181</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" t="s">
-        <v>67</v>
+        <v>244</v>
       </c>
       <c r="D56" t="s">
-        <v>119</v>
+        <v>234</v>
       </c>
       <c r="E56" t="s">
-        <v>168</v>
+        <v>254</v>
       </c>
       <c r="F56" t="s">
         <v>7</v>
@@ -2412,16 +2382,16 @@
         <v>181</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E57" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F57" t="s">
         <v>7</v>
@@ -2435,16 +2405,16 @@
         <v>181</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F58" t="s">
         <v>7</v>
@@ -2458,16 +2428,16 @@
         <v>181</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F59" t="s">
         <v>7</v>
@@ -2481,16 +2451,16 @@
         <v>181</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D60" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E60" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F60" t="s">
         <v>7</v>
@@ -2504,16 +2474,16 @@
         <v>181</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D61" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F61" t="s">
         <v>7</v>
@@ -2527,13 +2497,16 @@
         <v>181</v>
       </c>
       <c r="B62" t="s">
-        <v>183</v>
+        <v>76</v>
+      </c>
+      <c r="C62" t="s">
+        <v>77</v>
       </c>
       <c r="D62" t="s">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="E62" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F62" t="s">
         <v>7</v>
@@ -2547,13 +2520,13 @@
         <v>181</v>
       </c>
       <c r="B63" t="s">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="D63" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="E63" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="F63" t="s">
         <v>7</v>
@@ -2567,13 +2540,13 @@
         <v>181</v>
       </c>
       <c r="B64" t="s">
-        <v>236</v>
+        <v>78</v>
       </c>
       <c r="D64" t="s">
-        <v>226</v>
+        <v>125</v>
       </c>
       <c r="E64" t="s">
-        <v>246</v>
+        <v>174</v>
       </c>
       <c r="F64" t="s">
         <v>7</v>
@@ -2587,13 +2560,13 @@
         <v>181</v>
       </c>
       <c r="B65" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D65" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E65" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F65" t="s">
         <v>7</v>
@@ -2607,16 +2580,13 @@
         <v>181</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
-      </c>
-      <c r="C66" t="s">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="D66" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="E66" t="s">
-        <v>175</v>
+        <v>245</v>
       </c>
       <c r="F66" t="s">
         <v>7</v>
@@ -2630,13 +2600,16 @@
         <v>181</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="C67" t="s">
+        <v>80</v>
       </c>
       <c r="D67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E67" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F67" t="s">
         <v>7</v>
@@ -2650,16 +2623,13 @@
         <v>181</v>
       </c>
       <c r="B68" t="s">
-        <v>82</v>
-      </c>
-      <c r="C68" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E68" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F68" t="s">
         <v>7</v>
@@ -2673,16 +2643,16 @@
         <v>181</v>
       </c>
       <c r="B69" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C69" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E69" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F69" t="s">
         <v>7</v>
@@ -2696,16 +2666,16 @@
         <v>181</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C70" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D70" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E70" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F70" t="s">
         <v>7</v>
@@ -2719,18 +2689,41 @@
         <v>181</v>
       </c>
       <c r="B71" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" t="s">
+        <v>87</v>
+      </c>
+      <c r="D71" t="s">
+        <v>130</v>
+      </c>
+      <c r="E71" t="s">
+        <v>179</v>
+      </c>
+      <c r="F71" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>181</v>
+      </c>
+      <c r="B72" t="s">
         <v>88</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D72" t="s">
         <v>131</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E72" t="s">
         <v>180</v>
       </c>
-      <c r="F71" t="s">
-        <v>7</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="F72" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Bibsam_tidskriftslistor/scifree_data_iop.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_iop.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="317">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -201,9 +201,6 @@
     <t>0965-0393</t>
   </si>
   <si>
-    <t>2399-7532</t>
-  </si>
-  <si>
     <t>2399-1984</t>
   </si>
   <si>
@@ -366,9 +363,6 @@
     <t>Modelling and Simulation in Materials Science and Engineering</t>
   </si>
   <si>
-    <t>Multifunctional Materials</t>
-  </si>
-  <si>
     <t>Nano Futures</t>
   </si>
   <si>
@@ -513,9 +507,6 @@
     <t>https://iopscience.iop.org/journal/0965-0393</t>
   </si>
   <si>
-    <t>https://iopscience.iop.org/journal/2399-7532</t>
-  </si>
-  <si>
     <t>https://iopscience.iop.org/journal/2399-1984</t>
   </si>
   <si>
@@ -708,9 +699,6 @@
     <t>Applied Physics Express</t>
   </si>
   <si>
-    <t xml:space="preserve">Europhysics Letters </t>
-  </si>
-  <si>
     <t>Functional Composites and Structures</t>
   </si>
   <si>
@@ -738,9 +726,6 @@
     <t>1882-0786</t>
   </si>
   <si>
-    <t xml:space="preserve">1286-4854 </t>
-  </si>
-  <si>
     <t>2631-6331</t>
   </si>
   <si>
@@ -768,9 +753,6 @@
     <t>http://iopscience.iop.org/apex</t>
   </si>
   <si>
-    <t>http://iopscience.iop.org/epl</t>
-  </si>
-  <si>
     <t>http://iopscience.iop.org/fcs</t>
   </si>
   <si>
@@ -793,6 +775,201 @@
   </si>
   <si>
     <t>http://iopscience.iop.org/njp</t>
+  </si>
+  <si>
+    <t>Advances in Natural Sciences: Nanoscience and Nanotechnology</t>
+  </si>
+  <si>
+    <t>Communications in Theoretical Physics</t>
+  </si>
+  <si>
+    <t>ECS Meeting Abstracts</t>
+  </si>
+  <si>
+    <t>ECS Transactions</t>
+  </si>
+  <si>
+    <t>EPL</t>
+  </si>
+  <si>
+    <t>Journal of Semiconductors</t>
+  </si>
+  <si>
+    <t>Physics World</t>
+  </si>
+  <si>
+    <t>Plasma Science and Technology</t>
+  </si>
+  <si>
+    <t>Reports on Progress in Physics</t>
+  </si>
+  <si>
+    <t>Research in Astronomy and Astrophysics</t>
+  </si>
+  <si>
+    <t>2043-6262</t>
+  </si>
+  <si>
+    <t>1572-9494</t>
+  </si>
+  <si>
+    <t>2151-2043</t>
+  </si>
+  <si>
+    <t>1938-6737</t>
+  </si>
+  <si>
+    <t>1286-4854</t>
+  </si>
+  <si>
+    <t>2058-6140</t>
+  </si>
+  <si>
+    <t>2058-7058</t>
+  </si>
+  <si>
+    <t>2058-6272</t>
+  </si>
+  <si>
+    <t>1361-6633</t>
+  </si>
+  <si>
+    <t>2397-6209</t>
+  </si>
+  <si>
+    <t>ECS Advances</t>
+  </si>
+  <si>
+    <t>ECS Sensors Plus</t>
+  </si>
+  <si>
+    <t>Environmental Research: Climate</t>
+  </si>
+  <si>
+    <t>Environmental Research: Ecology</t>
+  </si>
+  <si>
+    <t>Environmental Research: Health</t>
+  </si>
+  <si>
+    <t>Environmental Research: Infrastructure and Sustainability</t>
+  </si>
+  <si>
+    <t>International Journal of Extreme Manufacturing</t>
+  </si>
+  <si>
+    <t>IOP Conference Series: Earth and Environmental Science</t>
+  </si>
+  <si>
+    <t>IOP Conference Series: Materials Science and Engineering</t>
+  </si>
+  <si>
+    <t>Journal of Physics: Conference Series</t>
+  </si>
+  <si>
+    <t>Materials Futures</t>
+  </si>
+  <si>
+    <t>Neuromorphic Computing and Engineering</t>
+  </si>
+  <si>
+    <t>2754-2734</t>
+  </si>
+  <si>
+    <t>2754-2726</t>
+  </si>
+  <si>
+    <t>2752-5295</t>
+  </si>
+  <si>
+    <t>2752-664X</t>
+  </si>
+  <si>
+    <t>2752-5309</t>
+  </si>
+  <si>
+    <t>2634-4505</t>
+  </si>
+  <si>
+    <t>2631-7990</t>
+  </si>
+  <si>
+    <t>1755-1315</t>
+  </si>
+  <si>
+    <t>1757-899X</t>
+  </si>
+  <si>
+    <t>1742-6596</t>
+  </si>
+  <si>
+    <t>2752-5724</t>
+  </si>
+  <si>
+    <t>2634-4386</t>
+  </si>
+  <si>
+    <t>https://iopscience.iop.org/journal/0295-5075</t>
+  </si>
+  <si>
+    <t>https://iopscience.iop.org/journal/0034-4885</t>
+  </si>
+  <si>
+    <t>https://iopscience.iop.org/journal/0253-6102</t>
+  </si>
+  <si>
+    <t>https://iopscience.iop.org/journal/1742-6596</t>
+  </si>
+  <si>
+    <t>https://iopscience.iop.org/journal/1755-1315</t>
+  </si>
+  <si>
+    <t>https://iopscience.iop.org/journal/1757-899X</t>
+  </si>
+  <si>
+    <t>https://iopscience.iop.org/journal/1938-5862</t>
+  </si>
+  <si>
+    <t>https://iopscience.iop.org/journal/2043-6262</t>
+  </si>
+  <si>
+    <t>https://iopscience.iop.org/journal/1674-4926</t>
+  </si>
+  <si>
+    <t>https://physicsworld.com/</t>
+  </si>
+  <si>
+    <t>https://iopscience.iop.org/journal/2151-2043</t>
+  </si>
+  <si>
+    <t>https://iopscience.iop.org/journal/1674-4527</t>
+  </si>
+  <si>
+    <t>https://iopscience.iop.org/journal/2631-7990</t>
+  </si>
+  <si>
+    <t>https://iopscience.iop.org/journal/2634-4386</t>
+  </si>
+  <si>
+    <t>https://iopscience.iop.org/journal/2634-4505</t>
+  </si>
+  <si>
+    <t>https://iopscience.iop.org/journal/2752-5295</t>
+  </si>
+  <si>
+    <t>https://iopscience.iop.org/journal/2752-5309</t>
+  </si>
+  <si>
+    <t>https://iopscience.iop.org/journal/2752-5724</t>
+  </si>
+  <si>
+    <t>https://iopscience.iop.org/journal/2752-664X</t>
+  </si>
+  <si>
+    <t>https://iopscience.iop.org/journal/2754-2726</t>
+  </si>
+  <si>
+    <t>https://iopscience.iop.org/journal/2754-2734</t>
   </si>
 </sst>
 </file>
@@ -854,7 +1031,131 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -872,6 +1173,16 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -886,10 +1197,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G72" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:G72"/>
-  <sortState ref="A2:G72">
-    <sortCondition ref="D1:D72"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G92" totalsRowShown="0" headerRowDxfId="14">
+  <autoFilter ref="A1:G92"/>
+  <sortState ref="A2:G92">
+    <sortCondition ref="D1:D92"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Imprint"/>
@@ -1167,7 +1478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1207,16 +1518,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -1227,16 +1538,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="E3" t="s">
-        <v>248</v>
+        <v>303</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -1247,19 +1558,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
+        <v>234</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>243</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -1270,19 +1578,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -1293,19 +1601,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1316,16 +1624,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1336,19 +1647,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -1359,16 +1667,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B9" t="s">
-        <v>243</v>
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>233</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>253</v>
+        <v>135</v>
       </c>
       <c r="F9" t="s">
         <v>7</v>
@@ -1379,16 +1690,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>263</v>
       </c>
       <c r="D10" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="E10" t="s">
-        <v>186</v>
+        <v>298</v>
       </c>
       <c r="F10" t="s">
         <v>7</v>
@@ -1399,19 +1710,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
-        <v>237</v>
+        <v>284</v>
       </c>
       <c r="D11" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="E11" t="s">
-        <v>247</v>
+        <v>316</v>
       </c>
       <c r="F11" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="G11" t="s">
         <v>8</v>
@@ -1419,19 +1730,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B12" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="D12" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="E12" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="F12" t="s">
-        <v>224</v>
+        <v>7</v>
       </c>
       <c r="G12" t="s">
         <v>8</v>
@@ -1439,19 +1750,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>264</v>
       </c>
       <c r="D13" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="E13" t="s">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="F13" t="s">
-        <v>224</v>
+        <v>7</v>
       </c>
       <c r="G13" t="s">
         <v>8</v>
@@ -1459,22 +1770,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
+        <v>285</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>138</v>
+        <v>273</v>
+      </c>
+      <c r="E14" t="s">
+        <v>315</v>
       </c>
       <c r="F14" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
@@ -1482,16 +1790,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="D15" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="E15" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="F15" t="s">
         <v>7</v>
@@ -1502,16 +1810,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" t="s">
         <v>181</v>
       </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s">
-        <v>96</v>
-      </c>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="F16" t="s">
         <v>7</v>
@@ -1522,19 +1830,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
+        <v>233</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>224</v>
       </c>
       <c r="E17" t="s">
-        <v>140</v>
+        <v>242</v>
       </c>
       <c r="F17" t="s">
         <v>7</v>
@@ -1545,19 +1850,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B18" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="D18" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="E18" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="F18" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="G18" t="s">
         <v>8</v>
@@ -1565,22 +1870,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
+        <v>197</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>141</v>
+        <v>185</v>
+      </c>
+      <c r="E19" t="s">
+        <v>209</v>
       </c>
       <c r="F19" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="G19" t="s">
         <v>8</v>
@@ -1588,19 +1890,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B20" t="s">
-        <v>209</v>
+        <v>286</v>
       </c>
       <c r="D20" t="s">
-        <v>197</v>
+        <v>274</v>
       </c>
       <c r="E20" t="s">
+        <v>311</v>
+      </c>
+      <c r="F20" t="s">
         <v>221</v>
-      </c>
-      <c r="F20" t="s">
-        <v>224</v>
       </c>
       <c r="G20" t="s">
         <v>8</v>
@@ -1608,19 +1910,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B21" t="s">
-        <v>242</v>
+        <v>287</v>
       </c>
       <c r="D21" t="s">
-        <v>232</v>
+        <v>275</v>
       </c>
       <c r="E21" t="s">
-        <v>252</v>
+        <v>314</v>
       </c>
       <c r="F21" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="G21" t="s">
         <v>8</v>
@@ -1628,22 +1930,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
+        <v>288</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>276</v>
       </c>
       <c r="E22" t="s">
-        <v>142</v>
+        <v>312</v>
       </c>
       <c r="F22" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="G22" t="s">
         <v>8</v>
@@ -1651,19 +1950,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>289</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>277</v>
       </c>
       <c r="E23" t="s">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="F23" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="G23" t="s">
         <v>8</v>
@@ -1671,16 +1970,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>266</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>256</v>
       </c>
       <c r="E24" t="s">
-        <v>145</v>
+        <v>296</v>
       </c>
       <c r="F24" t="s">
         <v>7</v>
@@ -1691,19 +1990,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" t="s">
-        <v>143</v>
+        <v>94</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="F25" t="s">
         <v>7</v>
@@ -1714,19 +2013,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E26" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="F26" t="s">
         <v>7</v>
@@ -1737,19 +2033,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>150</v>
+        <v>96</v>
+      </c>
+      <c r="E27" t="s">
+        <v>138</v>
       </c>
       <c r="F27" t="s">
         <v>7</v>
@@ -1760,19 +2056,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" t="s">
-        <v>37</v>
+        <v>235</v>
       </c>
       <c r="D28" t="s">
-        <v>148</v>
+        <v>226</v>
       </c>
       <c r="E28" t="s">
-        <v>151</v>
+        <v>244</v>
       </c>
       <c r="F28" t="s">
         <v>7</v>
@@ -1783,22 +2076,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" t="s">
-        <v>39</v>
+        <v>290</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>278</v>
       </c>
       <c r="E29" t="s">
-        <v>152</v>
+        <v>308</v>
       </c>
       <c r="F29" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="G29" t="s">
         <v>8</v>
@@ -1806,19 +2096,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B30" t="s">
-        <v>202</v>
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>190</v>
-      </c>
-      <c r="E30" t="s">
-        <v>214</v>
+        <v>97</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="F30" t="s">
-        <v>224</v>
+        <v>7</v>
       </c>
       <c r="G30" t="s">
         <v>8</v>
@@ -1826,22 +2119,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" t="s">
-        <v>43</v>
+        <v>291</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>279</v>
       </c>
       <c r="E31" t="s">
-        <v>153</v>
+        <v>300</v>
       </c>
       <c r="F31" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="G31" t="s">
         <v>8</v>
@@ -1849,22 +2139,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" t="s">
-        <v>45</v>
+        <v>292</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>280</v>
       </c>
       <c r="E32" t="s">
-        <v>154</v>
+        <v>301</v>
       </c>
       <c r="F32" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="G32" t="s">
         <v>8</v>
@@ -1872,19 +2159,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F33" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G33" t="s">
         <v>8</v>
@@ -1892,19 +2179,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" t="s">
-        <v>41</v>
+        <v>237</v>
       </c>
       <c r="D34" t="s">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="E34" t="s">
-        <v>155</v>
+        <v>246</v>
       </c>
       <c r="F34" t="s">
         <v>7</v>
@@ -1915,19 +2199,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B35" t="s">
-        <v>206</v>
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>194</v>
+        <v>98</v>
       </c>
       <c r="E35" t="s">
-        <v>218</v>
+        <v>140</v>
       </c>
       <c r="F35" t="s">
-        <v>224</v>
+        <v>7</v>
       </c>
       <c r="G35" t="s">
         <v>8</v>
@@ -1935,19 +2222,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B36" t="s">
-        <v>204</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>192</v>
+        <v>99</v>
       </c>
       <c r="E36" t="s">
-        <v>216</v>
+        <v>142</v>
       </c>
       <c r="F36" t="s">
-        <v>224</v>
+        <v>7</v>
       </c>
       <c r="G36" t="s">
         <v>8</v>
@@ -1955,19 +2242,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B37" t="s">
-        <v>205</v>
+        <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>217</v>
+        <v>143</v>
       </c>
       <c r="F37" t="s">
-        <v>224</v>
+        <v>7</v>
       </c>
       <c r="G37" t="s">
         <v>8</v>
@@ -1975,19 +2262,19 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E38" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="F38" t="s">
         <v>7</v>
@@ -1998,16 +2285,19 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>32</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E39" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F39" t="s">
         <v>7</v>
@@ -2018,16 +2308,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B40" t="s">
-        <v>241</v>
+        <v>34</v>
+      </c>
+      <c r="C40" t="s">
+        <v>35</v>
       </c>
       <c r="D40" t="s">
-        <v>231</v>
-      </c>
-      <c r="E40" t="s">
-        <v>251</v>
+        <v>103</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="F40" t="s">
         <v>7</v>
@@ -2038,19 +2331,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="E41" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F41" t="s">
         <v>7</v>
@@ -2061,19 +2354,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="E42" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F42" t="s">
         <v>7</v>
@@ -2084,19 +2377,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B43" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D43" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E43" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="F43" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G43" t="s">
         <v>8</v>
@@ -2104,19 +2397,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B44" t="s">
-        <v>211</v>
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>199</v>
+        <v>104</v>
       </c>
       <c r="E44" t="s">
-        <v>223</v>
+        <v>151</v>
       </c>
       <c r="F44" t="s">
-        <v>224</v>
+        <v>7</v>
       </c>
       <c r="G44" t="s">
         <v>8</v>
@@ -2124,19 +2420,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B45" t="s">
-        <v>201</v>
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>45</v>
       </c>
       <c r="D45" t="s">
-        <v>189</v>
+        <v>105</v>
       </c>
       <c r="E45" t="s">
-        <v>213</v>
+        <v>152</v>
       </c>
       <c r="F45" t="s">
-        <v>224</v>
+        <v>7</v>
       </c>
       <c r="G45" t="s">
         <v>8</v>
@@ -2144,22 +2443,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" t="s">
-        <v>54</v>
+        <v>204</v>
       </c>
       <c r="D46" t="s">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="E46" t="s">
-        <v>160</v>
+        <v>216</v>
       </c>
       <c r="F46" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="G46" t="s">
         <v>8</v>
@@ -2167,16 +2463,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>40</v>
+      </c>
+      <c r="C47" t="s">
+        <v>41</v>
       </c>
       <c r="D47" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="E47" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F47" t="s">
         <v>7</v>
@@ -2187,22 +2486,19 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" t="s">
-        <v>57</v>
+        <v>293</v>
       </c>
       <c r="D48" t="s">
-        <v>113</v>
+        <v>281</v>
       </c>
       <c r="E48" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="F48" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="G48" t="s">
         <v>8</v>
@@ -2210,22 +2506,19 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" t="s">
-        <v>59</v>
+        <v>203</v>
       </c>
       <c r="D49" t="s">
-        <v>114</v>
+        <v>191</v>
       </c>
       <c r="E49" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="F49" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="G49" t="s">
         <v>8</v>
@@ -2233,19 +2526,19 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>201</v>
       </c>
       <c r="D50" t="s">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="E50" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="F50" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="G50" t="s">
         <v>8</v>
@@ -2253,19 +2546,19 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B51" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D51" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E51" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F51" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G51" t="s">
         <v>8</v>
@@ -2273,16 +2566,19 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>46</v>
+      </c>
+      <c r="C52" t="s">
+        <v>47</v>
       </c>
       <c r="D52" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E52" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F52" t="s">
         <v>7</v>
@@ -2293,19 +2589,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" t="s">
-        <v>63</v>
+        <v>267</v>
       </c>
       <c r="D53" t="s">
-        <v>117</v>
+        <v>257</v>
       </c>
       <c r="E53" t="s">
-        <v>166</v>
+        <v>304</v>
       </c>
       <c r="F53" t="s">
         <v>7</v>
@@ -2316,19 +2609,19 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B54" t="s">
-        <v>255</v>
+        <v>48</v>
       </c>
       <c r="D54" t="s">
-        <v>256</v>
+        <v>107</v>
       </c>
       <c r="E54" t="s">
-        <v>257</v>
+        <v>155</v>
       </c>
       <c r="F54" t="s">
-        <v>224</v>
+        <v>7</v>
       </c>
       <c r="G54" t="s">
         <v>8</v>
@@ -2336,19 +2629,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55" t="s">
-        <v>65</v>
+        <v>236</v>
       </c>
       <c r="D55" t="s">
-        <v>118</v>
+        <v>227</v>
       </c>
       <c r="E55" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="F55" t="s">
         <v>7</v>
@@ -2359,16 +2649,19 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B56" t="s">
-        <v>244</v>
+        <v>49</v>
+      </c>
+      <c r="C56" t="s">
+        <v>50</v>
       </c>
       <c r="D56" t="s">
-        <v>234</v>
+        <v>108</v>
       </c>
       <c r="E56" t="s">
-        <v>254</v>
+        <v>156</v>
       </c>
       <c r="F56" t="s">
         <v>7</v>
@@ -2379,19 +2672,19 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C57" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D57" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E57" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="F57" t="s">
         <v>7</v>
@@ -2402,22 +2695,19 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" t="s">
-        <v>69</v>
+        <v>205</v>
       </c>
       <c r="D58" t="s">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="E58" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="F58" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="G58" t="s">
         <v>8</v>
@@ -2425,22 +2715,19 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
-      </c>
-      <c r="C59" t="s">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="D59" t="s">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="E59" t="s">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="F59" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="G59" t="s">
         <v>8</v>
@@ -2448,22 +2735,19 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
-      </c>
-      <c r="C60" t="s">
-        <v>73</v>
+        <v>294</v>
       </c>
       <c r="D60" t="s">
-        <v>122</v>
+        <v>282</v>
       </c>
       <c r="E60" t="s">
-        <v>171</v>
+        <v>313</v>
       </c>
       <c r="F60" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="G60" t="s">
         <v>8</v>
@@ -2471,22 +2755,19 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B61" t="s">
-        <v>74</v>
-      </c>
-      <c r="C61" t="s">
-        <v>75</v>
+        <v>198</v>
       </c>
       <c r="D61" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="E61" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="F61" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="G61" t="s">
         <v>8</v>
@@ -2494,19 +2775,19 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C62" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="D62" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E62" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="F62" t="s">
         <v>7</v>
@@ -2517,16 +2798,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B63" t="s">
-        <v>183</v>
+        <v>55</v>
       </c>
       <c r="D63" t="s">
-        <v>185</v>
+        <v>111</v>
       </c>
       <c r="E63" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="F63" t="s">
         <v>7</v>
@@ -2537,16 +2818,19 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>56</v>
+      </c>
+      <c r="C64" t="s">
+        <v>57</v>
       </c>
       <c r="D64" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E64" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="F64" t="s">
         <v>7</v>
@@ -2557,16 +2841,19 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B65" t="s">
-        <v>236</v>
+        <v>58</v>
+      </c>
+      <c r="C65" t="s">
+        <v>59</v>
       </c>
       <c r="D65" t="s">
-        <v>226</v>
+        <v>113</v>
       </c>
       <c r="E65" t="s">
-        <v>246</v>
+        <v>161</v>
       </c>
       <c r="F65" t="s">
         <v>7</v>
@@ -2577,19 +2864,19 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B66" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="D66" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="E66" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="F66" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="G66" t="s">
         <v>8</v>
@@ -2597,19 +2884,16 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B67" t="s">
-        <v>79</v>
-      </c>
-      <c r="C67" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D67" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E67" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="F67" t="s">
         <v>7</v>
@@ -2620,16 +2904,19 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B68" t="s">
-        <v>81</v>
+        <v>61</v>
+      </c>
+      <c r="C68" t="s">
+        <v>62</v>
       </c>
       <c r="D68" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="E68" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="F68" t="s">
         <v>7</v>
@@ -2640,22 +2927,19 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B69" t="s">
-        <v>82</v>
-      </c>
-      <c r="C69" t="s">
-        <v>83</v>
+        <v>295</v>
       </c>
       <c r="D69" t="s">
-        <v>128</v>
+        <v>283</v>
       </c>
       <c r="E69" t="s">
-        <v>177</v>
+        <v>309</v>
       </c>
       <c r="F69" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="G69" t="s">
         <v>8</v>
@@ -2663,22 +2947,19 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
-      </c>
-      <c r="C70" t="s">
-        <v>85</v>
+        <v>249</v>
       </c>
       <c r="D70" t="s">
-        <v>129</v>
+        <v>250</v>
       </c>
       <c r="E70" t="s">
-        <v>178</v>
+        <v>251</v>
       </c>
       <c r="F70" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="G70" t="s">
         <v>8</v>
@@ -2686,19 +2967,19 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C71" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D71" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E71" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="F71" t="s">
         <v>7</v>
@@ -2709,29 +2990,465 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B72" t="s">
-        <v>88</v>
+        <v>239</v>
       </c>
       <c r="D72" t="s">
-        <v>131</v>
+        <v>230</v>
       </c>
       <c r="E72" t="s">
+        <v>248</v>
+      </c>
+      <c r="F72" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>178</v>
+      </c>
+      <c r="B73" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" t="s">
+        <v>66</v>
+      </c>
+      <c r="D73" t="s">
+        <v>117</v>
+      </c>
+      <c r="E73" t="s">
+        <v>165</v>
+      </c>
+      <c r="F73" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>178</v>
+      </c>
+      <c r="B74" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>118</v>
+      </c>
+      <c r="E74" t="s">
+        <v>166</v>
+      </c>
+      <c r="F74" t="s">
+        <v>7</v>
+      </c>
+      <c r="G74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>178</v>
+      </c>
+      <c r="B75" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" t="s">
+        <v>70</v>
+      </c>
+      <c r="D75" t="s">
+        <v>119</v>
+      </c>
+      <c r="E75" t="s">
+        <v>167</v>
+      </c>
+      <c r="F75" t="s">
+        <v>7</v>
+      </c>
+      <c r="G75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>178</v>
+      </c>
+      <c r="B76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76" t="s">
+        <v>72</v>
+      </c>
+      <c r="D76" t="s">
+        <v>120</v>
+      </c>
+      <c r="E76" t="s">
+        <v>168</v>
+      </c>
+      <c r="F76" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>178</v>
+      </c>
+      <c r="B77" t="s">
+        <v>268</v>
+      </c>
+      <c r="D77" t="s">
+        <v>258</v>
+      </c>
+      <c r="E77" t="s">
+        <v>305</v>
+      </c>
+      <c r="F77" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>178</v>
+      </c>
+      <c r="B78" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78" t="s">
+        <v>74</v>
+      </c>
+      <c r="D78" t="s">
+        <v>121</v>
+      </c>
+      <c r="E78" t="s">
+        <v>169</v>
+      </c>
+      <c r="F78" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>178</v>
+      </c>
+      <c r="B79" t="s">
+        <v>75</v>
+      </c>
+      <c r="C79" t="s">
+        <v>76</v>
+      </c>
+      <c r="D79" t="s">
+        <v>122</v>
+      </c>
+      <c r="E79" t="s">
+        <v>170</v>
+      </c>
+      <c r="F79" t="s">
+        <v>7</v>
+      </c>
+      <c r="G79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>178</v>
+      </c>
+      <c r="B80" t="s">
         <v>180</v>
       </c>
-      <c r="F72" t="s">
-        <v>7</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="D80" t="s">
+        <v>182</v>
+      </c>
+      <c r="E80" t="s">
+        <v>184</v>
+      </c>
+      <c r="F80" t="s">
+        <v>7</v>
+      </c>
+      <c r="G80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>178</v>
+      </c>
+      <c r="B81" t="s">
+        <v>269</v>
+      </c>
+      <c r="D81" t="s">
+        <v>259</v>
+      </c>
+      <c r="E81" t="s">
+        <v>171</v>
+      </c>
+      <c r="F81" t="s">
+        <v>7</v>
+      </c>
+      <c r="G81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>178</v>
+      </c>
+      <c r="B82" t="s">
+        <v>77</v>
+      </c>
+      <c r="D82" t="s">
+        <v>123</v>
+      </c>
+      <c r="E82" t="s">
+        <v>171</v>
+      </c>
+      <c r="F82" t="s">
+        <v>7</v>
+      </c>
+      <c r="G82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>178</v>
+      </c>
+      <c r="B83" t="s">
+        <v>232</v>
+      </c>
+      <c r="D83" t="s">
+        <v>223</v>
+      </c>
+      <c r="E83" t="s">
+        <v>241</v>
+      </c>
+      <c r="F83" t="s">
+        <v>7</v>
+      </c>
+      <c r="G83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>178</v>
+      </c>
+      <c r="B84" t="s">
+        <v>231</v>
+      </c>
+      <c r="D84" t="s">
+        <v>222</v>
+      </c>
+      <c r="E84" t="s">
+        <v>240</v>
+      </c>
+      <c r="F84" t="s">
+        <v>7</v>
+      </c>
+      <c r="G84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>178</v>
+      </c>
+      <c r="B85" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" t="s">
+        <v>79</v>
+      </c>
+      <c r="D85" t="s">
+        <v>124</v>
+      </c>
+      <c r="E85" t="s">
+        <v>172</v>
+      </c>
+      <c r="F85" t="s">
+        <v>7</v>
+      </c>
+      <c r="G85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>178</v>
+      </c>
+      <c r="B86" t="s">
+        <v>80</v>
+      </c>
+      <c r="D86" t="s">
+        <v>125</v>
+      </c>
+      <c r="E86" t="s">
+        <v>173</v>
+      </c>
+      <c r="F86" t="s">
+        <v>7</v>
+      </c>
+      <c r="G86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>178</v>
+      </c>
+      <c r="B87" t="s">
+        <v>270</v>
+      </c>
+      <c r="D87" t="s">
+        <v>260</v>
+      </c>
+      <c r="E87" t="s">
+        <v>297</v>
+      </c>
+      <c r="F87" t="s">
+        <v>7</v>
+      </c>
+      <c r="G87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>178</v>
+      </c>
+      <c r="B88" t="s">
+        <v>271</v>
+      </c>
+      <c r="D88" t="s">
+        <v>261</v>
+      </c>
+      <c r="E88" t="s">
+        <v>307</v>
+      </c>
+      <c r="F88" t="s">
+        <v>7</v>
+      </c>
+      <c r="G88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>178</v>
+      </c>
+      <c r="B89" t="s">
+        <v>81</v>
+      </c>
+      <c r="C89" t="s">
+        <v>82</v>
+      </c>
+      <c r="D89" t="s">
+        <v>126</v>
+      </c>
+      <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
+        <v>7</v>
+      </c>
+      <c r="G89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" t="s">
+        <v>83</v>
+      </c>
+      <c r="C90" t="s">
+        <v>84</v>
+      </c>
+      <c r="D90" t="s">
+        <v>127</v>
+      </c>
+      <c r="E90" t="s">
+        <v>175</v>
+      </c>
+      <c r="F90" t="s">
+        <v>7</v>
+      </c>
+      <c r="G90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91" t="s">
+        <v>85</v>
+      </c>
+      <c r="C91" t="s">
+        <v>86</v>
+      </c>
+      <c r="D91" t="s">
+        <v>128</v>
+      </c>
+      <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
+        <v>7</v>
+      </c>
+      <c r="G91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>178</v>
+      </c>
+      <c r="B92" t="s">
+        <v>87</v>
+      </c>
+      <c r="D92" t="s">
+        <v>129</v>
+      </c>
+      <c r="E92" t="s">
+        <v>177</v>
+      </c>
+      <c r="F92" t="s">
+        <v>7</v>
+      </c>
+      <c r="G92" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B92">
+    <cfRule type="duplicateValues" dxfId="3" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D92">
+    <cfRule type="duplicateValues" dxfId="2" priority="28"/>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E14" r:id="rId1"/>
-    <hyperlink ref="E19" r:id="rId2"/>
-    <hyperlink ref="E27" r:id="rId3"/>
+    <hyperlink ref="E25" r:id="rId1"/>
+    <hyperlink ref="E30" r:id="rId2"/>
+    <hyperlink ref="E40" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/Bibsam_tidskriftslistor/scifree_data_iop.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_iop.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_7A01F9B85FC45E18C16D0A9E96CF08FD57B1F690" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E669BC9C-18CF-4724-9312-06010C544E6A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="279">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -561,21 +562,12 @@
     <t>2516-1075</t>
   </si>
   <si>
-    <t>2516-1067</t>
-  </si>
-  <si>
     <t>Electronic Structure</t>
   </si>
   <si>
-    <t xml:space="preserve">Plasma Research Express </t>
-  </si>
-  <si>
     <t>https://iopscience.iop.org/journal/2516-1075</t>
   </si>
   <si>
-    <t>https://iopscience.iop.org/journal/2516-1067</t>
-  </si>
-  <si>
     <t>Environmental Research Letters</t>
   </si>
   <si>
@@ -603,9 +595,6 @@
     <t>Machine Learning: Science and Technology</t>
   </si>
   <si>
-    <t>IOP SciNotes</t>
-  </si>
-  <si>
     <t>Nano Express</t>
   </si>
   <si>
@@ -639,9 +628,6 @@
     <t>2632-2153</t>
   </si>
   <si>
-    <t>2633-1357</t>
-  </si>
-  <si>
     <t>2632-959X</t>
   </si>
   <si>
@@ -675,9 +661,6 @@
     <t>https://iopscience.iop.org/mlst</t>
   </si>
   <si>
-    <t>https://iopscience.iop.org/journal/2633-1357</t>
-  </si>
-  <si>
     <t>https://iopscience.iop.org/nanox</t>
   </si>
   <si>
@@ -777,66 +760,18 @@
     <t>http://iopscience.iop.org/njp</t>
   </si>
   <si>
-    <t>Advances in Natural Sciences: Nanoscience and Nanotechnology</t>
-  </si>
-  <si>
-    <t>Communications in Theoretical Physics</t>
-  </si>
-  <si>
-    <t>ECS Meeting Abstracts</t>
-  </si>
-  <si>
-    <t>ECS Transactions</t>
-  </si>
-  <si>
     <t>EPL</t>
   </si>
   <si>
-    <t>Journal of Semiconductors</t>
-  </si>
-  <si>
-    <t>Physics World</t>
-  </si>
-  <si>
-    <t>Plasma Science and Technology</t>
-  </si>
-  <si>
     <t>Reports on Progress in Physics</t>
   </si>
   <si>
-    <t>Research in Astronomy and Astrophysics</t>
-  </si>
-  <si>
-    <t>2043-6262</t>
-  </si>
-  <si>
-    <t>1572-9494</t>
-  </si>
-  <si>
-    <t>2151-2043</t>
-  </si>
-  <si>
-    <t>1938-6737</t>
-  </si>
-  <si>
     <t>1286-4854</t>
   </si>
   <si>
-    <t>2058-6140</t>
-  </si>
-  <si>
-    <t>2058-7058</t>
-  </si>
-  <si>
-    <t>2058-6272</t>
-  </si>
-  <si>
     <t>1361-6633</t>
   </si>
   <si>
-    <t>2397-6209</t>
-  </si>
-  <si>
     <t>ECS Advances</t>
   </si>
   <si>
@@ -858,15 +793,6 @@
     <t>International Journal of Extreme Manufacturing</t>
   </si>
   <si>
-    <t>IOP Conference Series: Earth and Environmental Science</t>
-  </si>
-  <si>
-    <t>IOP Conference Series: Materials Science and Engineering</t>
-  </si>
-  <si>
-    <t>Journal of Physics: Conference Series</t>
-  </si>
-  <si>
     <t>Materials Futures</t>
   </si>
   <si>
@@ -894,15 +820,6 @@
     <t>2631-7990</t>
   </si>
   <si>
-    <t>1755-1315</t>
-  </si>
-  <si>
-    <t>1757-899X</t>
-  </si>
-  <si>
-    <t>1742-6596</t>
-  </si>
-  <si>
     <t>2752-5724</t>
   </si>
   <si>
@@ -913,36 +830,6 @@
   </si>
   <si>
     <t>https://iopscience.iop.org/journal/0034-4885</t>
-  </si>
-  <si>
-    <t>https://iopscience.iop.org/journal/0253-6102</t>
-  </si>
-  <si>
-    <t>https://iopscience.iop.org/journal/1742-6596</t>
-  </si>
-  <si>
-    <t>https://iopscience.iop.org/journal/1755-1315</t>
-  </si>
-  <si>
-    <t>https://iopscience.iop.org/journal/1757-899X</t>
-  </si>
-  <si>
-    <t>https://iopscience.iop.org/journal/1938-5862</t>
-  </si>
-  <si>
-    <t>https://iopscience.iop.org/journal/2043-6262</t>
-  </si>
-  <si>
-    <t>https://iopscience.iop.org/journal/1674-4926</t>
-  </si>
-  <si>
-    <t>https://physicsworld.com/</t>
-  </si>
-  <si>
-    <t>https://iopscience.iop.org/journal/2151-2043</t>
-  </si>
-  <si>
-    <t>https://iopscience.iop.org/journal/1674-4527</t>
   </si>
   <si>
     <t>https://iopscience.iop.org/journal/2631-7990</t>
@@ -975,27 +862,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1018,172 +889,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1197,19 +912,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G92" totalsRowShown="0" headerRowDxfId="14">
-  <autoFilter ref="A1:G92"/>
-  <sortState ref="A2:G92">
-    <sortCondition ref="D1:D92"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9E9C738E-3235-48B5-B13D-C7FA864E2F94}" name="Table2" displayName="Table2" ref="A1:G79" totalsRowShown="0">
+  <autoFilter ref="A1:G79" xr:uid="{9E9C738E-3235-48B5-B13D-C7FA864E2F94}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Imprint"/>
-    <tableColumn id="2" name="ISSN Electronic"/>
-    <tableColumn id="3" name="ISSN Print"/>
-    <tableColumn id="4" name="Journal Name"/>
-    <tableColumn id="5" name="JournalURL"/>
-    <tableColumn id="6" name="Publishing model"/>
-    <tableColumn id="7" name="CC License options"/>
+    <tableColumn id="1" xr3:uid="{F9D589D3-3737-4699-8BEE-FAB9B2197B82}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{6138AC52-E4FA-48F4-B031-8A5308FD0B4E}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{195DD81B-DB4F-4DA3-8B83-AC6D868DB07F}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{9DEE10CD-E954-4D07-96FF-9EE0F24667C8}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{1C9D41E9-48AC-4B8B-B018-2C3FE2736064}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{9E78C4B2-97DC-4013-8946-CC7BFAE07BA8}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{9AF0610C-DC21-4892-B8D6-BFEEBB4C060B}" name="CC License options"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1477,42 +1189,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G92"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B149200-AA24-4E81-9265-34D9DE7BA40F}">
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
-    <col min="5" max="5" width="44.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1541,16 +1255,16 @@
         <v>178</v>
       </c>
       <c r="B3" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="D3" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="E3" t="s">
-        <v>303</v>
+        <v>237</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>215</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -1561,13 +1275,16 @@
         <v>178</v>
       </c>
       <c r="B4" t="s">
-        <v>234</v>
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>225</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>243</v>
+        <v>131</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -1581,16 +1298,16 @@
         <v>178</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -1604,16 +1321,16 @@
         <v>178</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1627,16 +1344,13 @@
         <v>178</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1650,13 +1364,16 @@
         <v>178</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -1670,19 +1387,16 @@
         <v>178</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
+        <v>259</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>250</v>
       </c>
       <c r="E9" t="s">
-        <v>135</v>
+        <v>278</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>215</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
@@ -1693,13 +1407,13 @@
         <v>178</v>
       </c>
       <c r="B10" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="D10" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="E10" t="s">
-        <v>298</v>
+        <v>241</v>
       </c>
       <c r="F10" t="s">
         <v>7</v>
@@ -1713,16 +1427,16 @@
         <v>178</v>
       </c>
       <c r="B11" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="D11" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="E11" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="F11" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G11" t="s">
         <v>8</v>
@@ -1733,13 +1447,13 @@
         <v>178</v>
       </c>
       <c r="B12" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="D12" t="s">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="E12" t="s">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c r="F12" t="s">
         <v>7</v>
@@ -1753,13 +1467,13 @@
         <v>178</v>
       </c>
       <c r="B13" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="D13" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="E13" t="s">
-        <v>306</v>
+        <v>236</v>
       </c>
       <c r="F13" t="s">
         <v>7</v>
@@ -1773,16 +1487,16 @@
         <v>178</v>
       </c>
       <c r="B14" t="s">
-        <v>285</v>
+        <v>196</v>
       </c>
       <c r="D14" t="s">
-        <v>273</v>
+        <v>185</v>
       </c>
       <c r="E14" t="s">
-        <v>315</v>
+        <v>207</v>
       </c>
       <c r="F14" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
@@ -1793,16 +1507,16 @@
         <v>178</v>
       </c>
       <c r="B15" t="s">
-        <v>265</v>
+        <v>193</v>
       </c>
       <c r="D15" t="s">
-        <v>255</v>
+        <v>182</v>
       </c>
       <c r="E15" t="s">
-        <v>302</v>
+        <v>204</v>
       </c>
       <c r="F15" t="s">
-        <v>7</v>
+        <v>215</v>
       </c>
       <c r="G15" t="s">
         <v>8</v>
@@ -1813,16 +1527,16 @@
         <v>178</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>261</v>
       </c>
       <c r="D16" t="s">
-        <v>181</v>
+        <v>252</v>
       </c>
       <c r="E16" t="s">
-        <v>183</v>
+        <v>273</v>
       </c>
       <c r="F16" t="s">
-        <v>7</v>
+        <v>215</v>
       </c>
       <c r="G16" t="s">
         <v>8</v>
@@ -1833,16 +1547,16 @@
         <v>178</v>
       </c>
       <c r="B17" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="D17" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="E17" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="F17" t="s">
-        <v>7</v>
+        <v>215</v>
       </c>
       <c r="G17" t="s">
         <v>8</v>
@@ -1853,16 +1567,16 @@
         <v>178</v>
       </c>
       <c r="B18" t="s">
-        <v>200</v>
+        <v>263</v>
       </c>
       <c r="D18" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="E18" t="s">
-        <v>212</v>
+        <v>274</v>
       </c>
       <c r="F18" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G18" t="s">
         <v>8</v>
@@ -1873,16 +1587,16 @@
         <v>178</v>
       </c>
       <c r="B19" t="s">
-        <v>197</v>
+        <v>264</v>
       </c>
       <c r="D19" t="s">
-        <v>185</v>
+        <v>255</v>
       </c>
       <c r="E19" t="s">
-        <v>209</v>
+        <v>272</v>
       </c>
       <c r="F19" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G19" t="s">
         <v>8</v>
@@ -1893,16 +1607,16 @@
         <v>178</v>
       </c>
       <c r="B20" t="s">
-        <v>286</v>
+        <v>248</v>
       </c>
       <c r="D20" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="E20" t="s">
-        <v>311</v>
+        <v>268</v>
       </c>
       <c r="F20" t="s">
-        <v>221</v>
+        <v>7</v>
       </c>
       <c r="G20" t="s">
         <v>8</v>
@@ -1913,16 +1627,19 @@
         <v>178</v>
       </c>
       <c r="B21" t="s">
-        <v>287</v>
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>275</v>
+        <v>94</v>
       </c>
       <c r="E21" t="s">
-        <v>314</v>
+        <v>136</v>
       </c>
       <c r="F21" t="s">
-        <v>221</v>
+        <v>7</v>
       </c>
       <c r="G21" t="s">
         <v>8</v>
@@ -1933,16 +1650,16 @@
         <v>178</v>
       </c>
       <c r="B22" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>276</v>
+        <v>95</v>
       </c>
       <c r="E22" t="s">
-        <v>312</v>
+        <v>137</v>
       </c>
       <c r="F22" t="s">
-        <v>221</v>
+        <v>7</v>
       </c>
       <c r="G22" t="s">
         <v>8</v>
@@ -1953,16 +1670,19 @@
         <v>178</v>
       </c>
       <c r="B23" t="s">
-        <v>289</v>
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>277</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>310</v>
+        <v>138</v>
       </c>
       <c r="F23" t="s">
-        <v>221</v>
+        <v>7</v>
       </c>
       <c r="G23" t="s">
         <v>8</v>
@@ -1973,13 +1693,13 @@
         <v>178</v>
       </c>
       <c r="B24" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="D24" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="E24" t="s">
-        <v>296</v>
+        <v>238</v>
       </c>
       <c r="F24" t="s">
         <v>7</v>
@@ -1993,19 +1713,16 @@
         <v>178</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" t="s">
-        <v>20</v>
+        <v>265</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>136</v>
+        <v>256</v>
+      </c>
+      <c r="E25" t="s">
+        <v>270</v>
       </c>
       <c r="F25" t="s">
-        <v>7</v>
+        <v>215</v>
       </c>
       <c r="G25" t="s">
         <v>8</v>
@@ -2016,13 +1733,16 @@
         <v>178</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F26" t="s">
         <v>7</v>
@@ -2036,16 +1756,13 @@
         <v>178</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" t="s">
-        <v>23</v>
+        <v>231</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="E27" t="s">
-        <v>138</v>
+        <v>240</v>
       </c>
       <c r="F27" t="s">
         <v>7</v>
@@ -2059,13 +1776,16 @@
         <v>178</v>
       </c>
       <c r="B28" t="s">
-        <v>235</v>
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>226</v>
+        <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>244</v>
+        <v>140</v>
       </c>
       <c r="F28" t="s">
         <v>7</v>
@@ -2079,16 +1799,16 @@
         <v>178</v>
       </c>
       <c r="B29" t="s">
-        <v>290</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>278</v>
+        <v>99</v>
       </c>
       <c r="E29" t="s">
-        <v>308</v>
+        <v>142</v>
       </c>
       <c r="F29" t="s">
-        <v>221</v>
+        <v>7</v>
       </c>
       <c r="G29" t="s">
         <v>8</v>
@@ -2099,16 +1819,13 @@
         <v>178</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>139</v>
+        <v>100</v>
+      </c>
+      <c r="E30" t="s">
+        <v>143</v>
       </c>
       <c r="F30" t="s">
         <v>7</v>
@@ -2122,16 +1839,19 @@
         <v>178</v>
       </c>
       <c r="B31" t="s">
-        <v>291</v>
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>279</v>
+        <v>101</v>
       </c>
       <c r="E31" t="s">
-        <v>300</v>
+        <v>141</v>
       </c>
       <c r="F31" t="s">
-        <v>221</v>
+        <v>7</v>
       </c>
       <c r="G31" t="s">
         <v>8</v>
@@ -2142,16 +1862,19 @@
         <v>178</v>
       </c>
       <c r="B32" t="s">
-        <v>292</v>
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>280</v>
+        <v>102</v>
       </c>
       <c r="E32" t="s">
-        <v>301</v>
+        <v>147</v>
       </c>
       <c r="F32" t="s">
-        <v>221</v>
+        <v>7</v>
       </c>
       <c r="G32" t="s">
         <v>8</v>
@@ -2162,16 +1885,19 @@
         <v>178</v>
       </c>
       <c r="B33" t="s">
-        <v>206</v>
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>194</v>
+        <v>103</v>
       </c>
       <c r="E33" t="s">
-        <v>218</v>
+        <v>148</v>
       </c>
       <c r="F33" t="s">
-        <v>221</v>
+        <v>7</v>
       </c>
       <c r="G33" t="s">
         <v>8</v>
@@ -2182,13 +1908,16 @@
         <v>178</v>
       </c>
       <c r="B34" t="s">
-        <v>237</v>
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>228</v>
+        <v>146</v>
       </c>
       <c r="E34" t="s">
-        <v>246</v>
+        <v>149</v>
       </c>
       <c r="F34" t="s">
         <v>7</v>
@@ -2202,16 +1931,16 @@
         <v>178</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="E35" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F35" t="s">
         <v>7</v>
@@ -2225,16 +1954,16 @@
         <v>178</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>195</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="E36" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="F36" t="s">
-        <v>7</v>
+        <v>215</v>
       </c>
       <c r="G36" t="s">
         <v>8</v>
@@ -2245,13 +1974,16 @@
         <v>178</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E37" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F37" t="s">
         <v>7</v>
@@ -2265,16 +1997,16 @@
         <v>178</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E38" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F38" t="s">
         <v>7</v>
@@ -2288,19 +2020,16 @@
         <v>178</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="E39" t="s">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="F39" t="s">
-        <v>7</v>
+        <v>215</v>
       </c>
       <c r="G39" t="s">
         <v>8</v>
@@ -2311,16 +2040,16 @@
         <v>178</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>103</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
+      </c>
+      <c r="E40" t="s">
+        <v>153</v>
       </c>
       <c r="F40" t="s">
         <v>7</v>
@@ -2334,19 +2063,16 @@
         <v>178</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" t="s">
-        <v>37</v>
+        <v>199</v>
       </c>
       <c r="D41" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="E41" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="F41" t="s">
-        <v>7</v>
+        <v>215</v>
       </c>
       <c r="G41" t="s">
         <v>8</v>
@@ -2357,19 +2083,16 @@
         <v>178</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" t="s">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="D42" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="E42" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="F42" t="s">
-        <v>7</v>
+        <v>215</v>
       </c>
       <c r="G42" t="s">
         <v>8</v>
@@ -2380,16 +2103,16 @@
         <v>178</v>
       </c>
       <c r="B43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D43" t="s">
         <v>187</v>
       </c>
       <c r="E43" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F43" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G43" t="s">
         <v>8</v>
@@ -2400,16 +2123,16 @@
         <v>178</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E44" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F44" t="s">
         <v>7</v>
@@ -2423,16 +2146,13 @@
         <v>178</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E45" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F45" t="s">
         <v>7</v>
@@ -2446,16 +2166,16 @@
         <v>178</v>
       </c>
       <c r="B46" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="D46" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="E46" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="F46" t="s">
-        <v>221</v>
+        <v>7</v>
       </c>
       <c r="G46" t="s">
         <v>8</v>
@@ -2466,16 +2186,16 @@
         <v>178</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="E47" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F47" t="s">
         <v>7</v>
@@ -2489,16 +2209,19 @@
         <v>178</v>
       </c>
       <c r="B48" t="s">
-        <v>293</v>
+        <v>51</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>281</v>
+        <v>109</v>
       </c>
       <c r="E48" t="s">
-        <v>299</v>
+        <v>157</v>
       </c>
       <c r="F48" t="s">
-        <v>221</v>
+        <v>7</v>
       </c>
       <c r="G48" t="s">
         <v>8</v>
@@ -2509,16 +2232,16 @@
         <v>178</v>
       </c>
       <c r="B49" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D49" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E49" t="s">
+        <v>212</v>
+      </c>
+      <c r="F49" t="s">
         <v>215</v>
-      </c>
-      <c r="F49" t="s">
-        <v>221</v>
       </c>
       <c r="G49" t="s">
         <v>8</v>
@@ -2529,16 +2252,16 @@
         <v>178</v>
       </c>
       <c r="B50" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D50" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E50" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G50" t="s">
         <v>8</v>
@@ -2549,16 +2272,16 @@
         <v>178</v>
       </c>
       <c r="B51" t="s">
-        <v>202</v>
+        <v>266</v>
       </c>
       <c r="D51" t="s">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="E51" t="s">
-        <v>214</v>
+        <v>275</v>
       </c>
       <c r="F51" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G51" t="s">
         <v>8</v>
@@ -2569,19 +2292,16 @@
         <v>178</v>
       </c>
       <c r="B52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" t="s">
-        <v>47</v>
+        <v>194</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="E52" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="F52" t="s">
-        <v>7</v>
+        <v>215</v>
       </c>
       <c r="G52" t="s">
         <v>8</v>
@@ -2592,13 +2312,16 @@
         <v>178</v>
       </c>
       <c r="B53" t="s">
-        <v>267</v>
+        <v>53</v>
+      </c>
+      <c r="C53" t="s">
+        <v>54</v>
       </c>
       <c r="D53" t="s">
-        <v>257</v>
+        <v>110</v>
       </c>
       <c r="E53" t="s">
-        <v>304</v>
+        <v>158</v>
       </c>
       <c r="F53" t="s">
         <v>7</v>
@@ -2612,13 +2335,13 @@
         <v>178</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D54" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E54" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F54" t="s">
         <v>7</v>
@@ -2632,13 +2355,16 @@
         <v>178</v>
       </c>
       <c r="B55" t="s">
-        <v>236</v>
+        <v>56</v>
+      </c>
+      <c r="C55" t="s">
+        <v>57</v>
       </c>
       <c r="D55" t="s">
-        <v>227</v>
+        <v>112</v>
       </c>
       <c r="E55" t="s">
-        <v>245</v>
+        <v>160</v>
       </c>
       <c r="F55" t="s">
         <v>7</v>
@@ -2652,16 +2378,16 @@
         <v>178</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D56" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E56" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F56" t="s">
         <v>7</v>
@@ -2675,19 +2401,16 @@
         <v>178</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C57" t="s">
-        <v>52</v>
+        <v>202</v>
       </c>
       <c r="D57" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="E57" t="s">
-        <v>157</v>
+        <v>213</v>
       </c>
       <c r="F57" t="s">
-        <v>7</v>
+        <v>215</v>
       </c>
       <c r="G57" t="s">
         <v>8</v>
@@ -2698,16 +2421,16 @@
         <v>178</v>
       </c>
       <c r="B58" t="s">
-        <v>205</v>
+        <v>60</v>
       </c>
       <c r="D58" t="s">
-        <v>193</v>
+        <v>114</v>
       </c>
       <c r="E58" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="F58" t="s">
-        <v>221</v>
+        <v>7</v>
       </c>
       <c r="G58" t="s">
         <v>8</v>
@@ -2718,16 +2441,19 @@
         <v>178</v>
       </c>
       <c r="B59" t="s">
-        <v>208</v>
+        <v>61</v>
+      </c>
+      <c r="C59" t="s">
+        <v>62</v>
       </c>
       <c r="D59" t="s">
-        <v>196</v>
+        <v>115</v>
       </c>
       <c r="E59" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="F59" t="s">
-        <v>221</v>
+        <v>7</v>
       </c>
       <c r="G59" t="s">
         <v>8</v>
@@ -2738,16 +2464,16 @@
         <v>178</v>
       </c>
       <c r="B60" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="D60" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="E60" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="F60" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G60" t="s">
         <v>8</v>
@@ -2758,16 +2484,16 @@
         <v>178</v>
       </c>
       <c r="B61" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="D61" t="s">
-        <v>186</v>
+        <v>244</v>
       </c>
       <c r="E61" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="F61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G61" t="s">
         <v>8</v>
@@ -2778,16 +2504,16 @@
         <v>178</v>
       </c>
       <c r="B62" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D62" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E62" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F62" t="s">
         <v>7</v>
@@ -2801,16 +2527,16 @@
         <v>178</v>
       </c>
       <c r="B63" t="s">
-        <v>55</v>
+        <v>233</v>
       </c>
       <c r="D63" t="s">
-        <v>111</v>
+        <v>224</v>
       </c>
       <c r="E63" t="s">
-        <v>159</v>
+        <v>242</v>
       </c>
       <c r="F63" t="s">
-        <v>7</v>
+        <v>215</v>
       </c>
       <c r="G63" t="s">
         <v>8</v>
@@ -2821,16 +2547,16 @@
         <v>178</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D64" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E64" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F64" t="s">
         <v>7</v>
@@ -2844,16 +2570,16 @@
         <v>178</v>
       </c>
       <c r="B65" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D65" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E65" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F65" t="s">
         <v>7</v>
@@ -2867,16 +2593,19 @@
         <v>178</v>
       </c>
       <c r="B66" t="s">
-        <v>207</v>
+        <v>69</v>
+      </c>
+      <c r="C66" t="s">
+        <v>70</v>
       </c>
       <c r="D66" t="s">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c r="E66" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="F66" t="s">
-        <v>221</v>
+        <v>7</v>
       </c>
       <c r="G66" t="s">
         <v>8</v>
@@ -2887,13 +2616,16 @@
         <v>178</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>71</v>
+      </c>
+      <c r="C67" t="s">
+        <v>72</v>
       </c>
       <c r="D67" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E67" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F67" t="s">
         <v>7</v>
@@ -2907,16 +2639,16 @@
         <v>178</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C68" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D68" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E68" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F68" t="s">
         <v>7</v>
@@ -2930,16 +2662,19 @@
         <v>178</v>
       </c>
       <c r="B69" t="s">
-        <v>295</v>
+        <v>75</v>
+      </c>
+      <c r="C69" t="s">
+        <v>76</v>
       </c>
       <c r="D69" t="s">
-        <v>283</v>
+        <v>122</v>
       </c>
       <c r="E69" t="s">
-        <v>309</v>
+        <v>170</v>
       </c>
       <c r="F69" t="s">
-        <v>221</v>
+        <v>7</v>
       </c>
       <c r="G69" t="s">
         <v>8</v>
@@ -2950,16 +2685,16 @@
         <v>178</v>
       </c>
       <c r="B70" t="s">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="D70" t="s">
-        <v>250</v>
+        <v>123</v>
       </c>
       <c r="E70" t="s">
-        <v>251</v>
+        <v>171</v>
       </c>
       <c r="F70" t="s">
-        <v>221</v>
+        <v>7</v>
       </c>
       <c r="G70" t="s">
         <v>8</v>
@@ -2970,16 +2705,13 @@
         <v>178</v>
       </c>
       <c r="B71" t="s">
-        <v>63</v>
-      </c>
-      <c r="C71" t="s">
-        <v>64</v>
+        <v>226</v>
       </c>
       <c r="D71" t="s">
-        <v>116</v>
+        <v>217</v>
       </c>
       <c r="E71" t="s">
-        <v>164</v>
+        <v>235</v>
       </c>
       <c r="F71" t="s">
         <v>7</v>
@@ -2993,13 +2725,13 @@
         <v>178</v>
       </c>
       <c r="B72" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D72" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E72" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="F72" t="s">
         <v>7</v>
@@ -3013,16 +2745,16 @@
         <v>178</v>
       </c>
       <c r="B73" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C73" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D73" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E73" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="F73" t="s">
         <v>7</v>
@@ -3036,16 +2768,13 @@
         <v>178</v>
       </c>
       <c r="B74" t="s">
-        <v>67</v>
-      </c>
-      <c r="C74" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D74" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E74" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F74" t="s">
         <v>7</v>
@@ -3059,16 +2788,13 @@
         <v>178</v>
       </c>
       <c r="B75" t="s">
-        <v>69</v>
-      </c>
-      <c r="C75" t="s">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="D75" t="s">
-        <v>119</v>
+        <v>247</v>
       </c>
       <c r="E75" t="s">
-        <v>167</v>
+        <v>269</v>
       </c>
       <c r="F75" t="s">
         <v>7</v>
@@ -3082,16 +2808,16 @@
         <v>178</v>
       </c>
       <c r="B76" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C76" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D76" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E76" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F76" t="s">
         <v>7</v>
@@ -3105,13 +2831,16 @@
         <v>178</v>
       </c>
       <c r="B77" t="s">
-        <v>268</v>
+        <v>83</v>
+      </c>
+      <c r="C77" t="s">
+        <v>84</v>
       </c>
       <c r="D77" t="s">
-        <v>258</v>
+        <v>127</v>
       </c>
       <c r="E77" t="s">
-        <v>305</v>
+        <v>175</v>
       </c>
       <c r="F77" t="s">
         <v>7</v>
@@ -3125,16 +2854,16 @@
         <v>178</v>
       </c>
       <c r="B78" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D78" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E78" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F78" t="s">
         <v>7</v>
@@ -3148,16 +2877,13 @@
         <v>178</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
-      </c>
-      <c r="C79" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D79" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E79" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F79" t="s">
         <v>7</v>
@@ -3166,294 +2892,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>178</v>
-      </c>
-      <c r="B80" t="s">
-        <v>180</v>
-      </c>
-      <c r="D80" t="s">
-        <v>182</v>
-      </c>
-      <c r="E80" t="s">
-        <v>184</v>
-      </c>
-      <c r="F80" t="s">
-        <v>7</v>
-      </c>
-      <c r="G80" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>178</v>
-      </c>
-      <c r="B81" t="s">
-        <v>269</v>
-      </c>
-      <c r="D81" t="s">
-        <v>259</v>
-      </c>
-      <c r="E81" t="s">
-        <v>171</v>
-      </c>
-      <c r="F81" t="s">
-        <v>7</v>
-      </c>
-      <c r="G81" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>178</v>
-      </c>
-      <c r="B82" t="s">
-        <v>77</v>
-      </c>
-      <c r="D82" t="s">
-        <v>123</v>
-      </c>
-      <c r="E82" t="s">
-        <v>171</v>
-      </c>
-      <c r="F82" t="s">
-        <v>7</v>
-      </c>
-      <c r="G82" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>178</v>
-      </c>
-      <c r="B83" t="s">
-        <v>232</v>
-      </c>
-      <c r="D83" t="s">
-        <v>223</v>
-      </c>
-      <c r="E83" t="s">
-        <v>241</v>
-      </c>
-      <c r="F83" t="s">
-        <v>7</v>
-      </c>
-      <c r="G83" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>178</v>
-      </c>
-      <c r="B84" t="s">
-        <v>231</v>
-      </c>
-      <c r="D84" t="s">
-        <v>222</v>
-      </c>
-      <c r="E84" t="s">
-        <v>240</v>
-      </c>
-      <c r="F84" t="s">
-        <v>7</v>
-      </c>
-      <c r="G84" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>178</v>
-      </c>
-      <c r="B85" t="s">
-        <v>78</v>
-      </c>
-      <c r="C85" t="s">
-        <v>79</v>
-      </c>
-      <c r="D85" t="s">
-        <v>124</v>
-      </c>
-      <c r="E85" t="s">
-        <v>172</v>
-      </c>
-      <c r="F85" t="s">
-        <v>7</v>
-      </c>
-      <c r="G85" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>178</v>
-      </c>
-      <c r="B86" t="s">
-        <v>80</v>
-      </c>
-      <c r="D86" t="s">
-        <v>125</v>
-      </c>
-      <c r="E86" t="s">
-        <v>173</v>
-      </c>
-      <c r="F86" t="s">
-        <v>7</v>
-      </c>
-      <c r="G86" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>178</v>
-      </c>
-      <c r="B87" t="s">
-        <v>270</v>
-      </c>
-      <c r="D87" t="s">
-        <v>260</v>
-      </c>
-      <c r="E87" t="s">
-        <v>297</v>
-      </c>
-      <c r="F87" t="s">
-        <v>7</v>
-      </c>
-      <c r="G87" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>178</v>
-      </c>
-      <c r="B88" t="s">
-        <v>271</v>
-      </c>
-      <c r="D88" t="s">
-        <v>261</v>
-      </c>
-      <c r="E88" t="s">
-        <v>307</v>
-      </c>
-      <c r="F88" t="s">
-        <v>7</v>
-      </c>
-      <c r="G88" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>178</v>
-      </c>
-      <c r="B89" t="s">
-        <v>81</v>
-      </c>
-      <c r="C89" t="s">
-        <v>82</v>
-      </c>
-      <c r="D89" t="s">
-        <v>126</v>
-      </c>
-      <c r="E89" t="s">
-        <v>174</v>
-      </c>
-      <c r="F89" t="s">
-        <v>7</v>
-      </c>
-      <c r="G89" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>178</v>
-      </c>
-      <c r="B90" t="s">
-        <v>83</v>
-      </c>
-      <c r="C90" t="s">
-        <v>84</v>
-      </c>
-      <c r="D90" t="s">
-        <v>127</v>
-      </c>
-      <c r="E90" t="s">
-        <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>7</v>
-      </c>
-      <c r="G90" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>178</v>
-      </c>
-      <c r="B91" t="s">
-        <v>85</v>
-      </c>
-      <c r="C91" t="s">
-        <v>86</v>
-      </c>
-      <c r="D91" t="s">
-        <v>128</v>
-      </c>
-      <c r="E91" t="s">
-        <v>176</v>
-      </c>
-      <c r="F91" t="s">
-        <v>7</v>
-      </c>
-      <c r="G91" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>178</v>
-      </c>
-      <c r="B92" t="s">
-        <v>87</v>
-      </c>
-      <c r="D92" t="s">
-        <v>129</v>
-      </c>
-      <c r="E92" t="s">
-        <v>177</v>
-      </c>
-      <c r="F92" t="s">
-        <v>7</v>
-      </c>
-      <c r="G92" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B92">
-    <cfRule type="duplicateValues" dxfId="3" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D92">
-    <cfRule type="duplicateValues" dxfId="2" priority="28"/>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="E25" r:id="rId1"/>
-    <hyperlink ref="E30" r:id="rId2"/>
-    <hyperlink ref="E40" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Bibsam_tidskriftslistor/scifree_data_iop.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_iop.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_7A01F9B85FC45E18C16D0A9E96CF08FD57B1F690" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E669BC9C-18CF-4724-9312-06010C544E6A}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_7A01F9B85FC45E18C16D0A9E96CF08FD57B1F690" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15FD222D-9DF3-4A68-A2F7-0E35F11D5223}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="273">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -685,15 +685,9 @@
     <t>Functional Composites and Structures</t>
   </si>
   <si>
-    <t>Journal of the Electrochemical Society</t>
-  </si>
-  <si>
     <t>Japanese Journal of Applied Physics</t>
   </si>
   <si>
-    <t>ECS Journal of Solid State Science and Technology</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nuclear Fusion </t>
   </si>
   <si>
@@ -712,15 +706,9 @@
     <t>2631-6331</t>
   </si>
   <si>
-    <t>1945-7111</t>
-  </si>
-  <si>
     <t>1347-4065</t>
   </si>
   <si>
-    <t>2162-8777</t>
-  </si>
-  <si>
     <t>1741-4326</t>
   </si>
   <si>
@@ -739,13 +727,7 @@
     <t>http://iopscience.iop.org/fcs</t>
   </si>
   <si>
-    <t>https://iopscience.iop.org/journal/1945-7111</t>
-  </si>
-  <si>
     <t>http://iopscience.iop.org/jjap</t>
-  </si>
-  <si>
-    <t>https://iopscience.iop.org/journal/2162-8777</t>
   </si>
   <si>
     <t>http://iopscience.iop.org/nf</t>
@@ -912,16 +894,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9E9C738E-3235-48B5-B13D-C7FA864E2F94}" name="Table2" displayName="Table2" ref="A1:G79" totalsRowShown="0">
-  <autoFilter ref="A1:G79" xr:uid="{9E9C738E-3235-48B5-B13D-C7FA864E2F94}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00AFA8FE-D3AD-432F-B871-50182D0DDA7F}" name="Table1" displayName="Table1" ref="A1:G77" totalsRowShown="0">
+  <autoFilter ref="A1:G77" xr:uid="{00AFA8FE-D3AD-432F-B871-50182D0DDA7F}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F9D589D3-3737-4699-8BEE-FAB9B2197B82}" name="Imprint"/>
-    <tableColumn id="2" xr3:uid="{6138AC52-E4FA-48F4-B031-8A5308FD0B4E}" name="ISSN Electronic"/>
-    <tableColumn id="3" xr3:uid="{195DD81B-DB4F-4DA3-8B83-AC6D868DB07F}" name="ISSN Print"/>
-    <tableColumn id="4" xr3:uid="{9DEE10CD-E954-4D07-96FF-9EE0F24667C8}" name="Journal Name"/>
-    <tableColumn id="5" xr3:uid="{1C9D41E9-48AC-4B8B-B018-2C3FE2736064}" name="JournalURL"/>
-    <tableColumn id="6" xr3:uid="{9E78C4B2-97DC-4013-8946-CC7BFAE07BA8}" name="Publishing model"/>
-    <tableColumn id="7" xr3:uid="{9AF0610C-DC21-4892-B8D6-BFEEBB4C060B}" name="CC License options"/>
+    <tableColumn id="1" xr3:uid="{99020C15-9744-48B6-98BF-9F66FE94DAB0}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{52442636-735F-47C8-98B3-5D41EF57C492}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{EEFC8889-D168-49EE-8BBE-71164F09AE14}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{64227223-BCDB-4088-8E85-C0C072E187BD}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{B8A97C0A-FE07-4D2A-B101-A686012AE3C1}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{84B9E659-D11C-49D2-ADAC-7C9161DAD2C3}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{C13DC9AE-5BA2-479D-92AF-7F02A124C152}" name="CC License options"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1189,8 +1171,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B149200-AA24-4E81-9265-34D9DE7BA40F}">
-  <dimension ref="A1:G79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A090FA64-70CE-44AE-8B17-3D3B6DBDB02F}">
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1201,7 +1183,7 @@
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
@@ -1255,13 +1237,13 @@
         <v>178</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D3" t="s">
         <v>219</v>
       </c>
       <c r="E3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F3" t="s">
         <v>215</v>
@@ -1387,13 +1369,13 @@
         <v>178</v>
       </c>
       <c r="B9" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D9" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F9" t="s">
         <v>215</v>
@@ -1407,16 +1389,16 @@
         <v>178</v>
       </c>
       <c r="B10" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="D10" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="E10" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>215</v>
       </c>
       <c r="G10" t="s">
         <v>8</v>
@@ -1427,16 +1409,16 @@
         <v>178</v>
       </c>
       <c r="B11" t="s">
-        <v>260</v>
+        <v>179</v>
       </c>
       <c r="D11" t="s">
-        <v>251</v>
+        <v>180</v>
       </c>
       <c r="E11" t="s">
-        <v>277</v>
+        <v>181</v>
       </c>
       <c r="F11" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
         <v>8</v>
@@ -1447,13 +1429,13 @@
         <v>178</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="D12" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="E12" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="F12" t="s">
         <v>7</v>
@@ -1467,16 +1449,16 @@
         <v>178</v>
       </c>
       <c r="B13" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="D13" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="E13" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="F13" t="s">
-        <v>7</v>
+        <v>215</v>
       </c>
       <c r="G13" t="s">
         <v>8</v>
@@ -1487,13 +1469,13 @@
         <v>178</v>
       </c>
       <c r="B14" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D14" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F14" t="s">
         <v>215</v>
@@ -1507,13 +1489,13 @@
         <v>178</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>255</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>246</v>
       </c>
       <c r="E15" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
       <c r="F15" t="s">
         <v>215</v>
@@ -1527,13 +1509,13 @@
         <v>178</v>
       </c>
       <c r="B16" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D16" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E16" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F16" t="s">
         <v>215</v>
@@ -1547,13 +1529,13 @@
         <v>178</v>
       </c>
       <c r="B17" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D17" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E17" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F17" t="s">
         <v>215</v>
@@ -1567,13 +1549,13 @@
         <v>178</v>
       </c>
       <c r="B18" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D18" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E18" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F18" t="s">
         <v>215</v>
@@ -1587,16 +1569,16 @@
         <v>178</v>
       </c>
       <c r="B19" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="D19" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="E19" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="F19" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="G19" t="s">
         <v>8</v>
@@ -1607,13 +1589,16 @@
         <v>178</v>
       </c>
       <c r="B20" t="s">
-        <v>248</v>
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>246</v>
+        <v>94</v>
       </c>
       <c r="E20" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="F20" t="s">
         <v>7</v>
@@ -1627,16 +1612,13 @@
         <v>178</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F21" t="s">
         <v>7</v>
@@ -1650,13 +1632,16 @@
         <v>178</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F22" t="s">
         <v>7</v>
@@ -1670,16 +1655,13 @@
         <v>178</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="E23" t="s">
-        <v>138</v>
+        <v>234</v>
       </c>
       <c r="F23" t="s">
         <v>7</v>
@@ -1693,16 +1675,16 @@
         <v>178</v>
       </c>
       <c r="B24" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="D24" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="E24" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="F24" t="s">
-        <v>7</v>
+        <v>215</v>
       </c>
       <c r="G24" t="s">
         <v>8</v>
@@ -1713,16 +1695,19 @@
         <v>178</v>
       </c>
       <c r="B25" t="s">
-        <v>265</v>
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>256</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>270</v>
+        <v>139</v>
       </c>
       <c r="F25" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="G25" t="s">
         <v>8</v>
@@ -1733,16 +1718,13 @@
         <v>178</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
+        <v>228</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>221</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>235</v>
       </c>
       <c r="F26" t="s">
         <v>7</v>
@@ -1756,13 +1738,16 @@
         <v>178</v>
       </c>
       <c r="B27" t="s">
-        <v>231</v>
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>222</v>
+        <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="F27" t="s">
         <v>7</v>
@@ -1776,16 +1761,13 @@
         <v>178</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E28" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F28" t="s">
         <v>7</v>
@@ -1799,13 +1781,13 @@
         <v>178</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F29" t="s">
         <v>7</v>
@@ -1819,13 +1801,16 @@
         <v>178</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F30" t="s">
         <v>7</v>
@@ -1839,16 +1824,16 @@
         <v>178</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E31" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F31" t="s">
         <v>7</v>
@@ -1862,16 +1847,16 @@
         <v>178</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F32" t="s">
         <v>7</v>
@@ -1885,16 +1870,16 @@
         <v>178</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="E33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F33" t="s">
         <v>7</v>
@@ -1908,16 +1893,16 @@
         <v>178</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F34" t="s">
         <v>7</v>
@@ -1931,19 +1916,16 @@
         <v>178</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" t="s">
-        <v>39</v>
+        <v>195</v>
       </c>
       <c r="D35" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="E35" t="s">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="F35" t="s">
-        <v>7</v>
+        <v>215</v>
       </c>
       <c r="G35" t="s">
         <v>8</v>
@@ -1954,16 +1936,19 @@
         <v>178</v>
       </c>
       <c r="B36" t="s">
-        <v>195</v>
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>184</v>
+        <v>104</v>
       </c>
       <c r="E36" t="s">
-        <v>206</v>
+        <v>151</v>
       </c>
       <c r="F36" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="G36" t="s">
         <v>8</v>
@@ -1974,16 +1959,16 @@
         <v>178</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F37" t="s">
         <v>7</v>
@@ -1997,19 +1982,16 @@
         <v>178</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" t="s">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="E38" t="s">
-        <v>152</v>
+        <v>211</v>
       </c>
       <c r="F38" t="s">
-        <v>7</v>
+        <v>215</v>
       </c>
       <c r="G38" t="s">
         <v>8</v>
@@ -2020,16 +2002,19 @@
         <v>178</v>
       </c>
       <c r="B39" t="s">
-        <v>200</v>
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="E39" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="F39" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="G39" t="s">
         <v>8</v>
@@ -2040,19 +2025,16 @@
         <v>178</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" t="s">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="D40" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
       <c r="E40" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="F40" t="s">
-        <v>7</v>
+        <v>215</v>
       </c>
       <c r="G40" t="s">
         <v>8</v>
@@ -2063,13 +2045,13 @@
         <v>178</v>
       </c>
       <c r="B41" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D41" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E41" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F41" t="s">
         <v>215</v>
@@ -2083,13 +2065,13 @@
         <v>178</v>
       </c>
       <c r="B42" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D42" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E42" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F42" t="s">
         <v>215</v>
@@ -2103,16 +2085,19 @@
         <v>178</v>
       </c>
       <c r="B43" t="s">
-        <v>198</v>
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="E43" t="s">
-        <v>209</v>
+        <v>154</v>
       </c>
       <c r="F43" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="G43" t="s">
         <v>8</v>
@@ -2123,16 +2108,13 @@
         <v>178</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E44" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F44" t="s">
         <v>7</v>
@@ -2146,13 +2128,16 @@
         <v>178</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
       </c>
       <c r="D45" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E45" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F45" t="s">
         <v>7</v>
@@ -2166,13 +2151,16 @@
         <v>178</v>
       </c>
       <c r="B46" t="s">
-        <v>230</v>
+        <v>51</v>
+      </c>
+      <c r="C46" t="s">
+        <v>52</v>
       </c>
       <c r="D46" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="E46" t="s">
-        <v>239</v>
+        <v>157</v>
       </c>
       <c r="F46" t="s">
         <v>7</v>
@@ -2186,19 +2174,16 @@
         <v>178</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" t="s">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="E47" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="F47" t="s">
-        <v>7</v>
+        <v>215</v>
       </c>
       <c r="G47" t="s">
         <v>8</v>
@@ -2209,19 +2194,16 @@
         <v>178</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" t="s">
-        <v>52</v>
+        <v>203</v>
       </c>
       <c r="D48" t="s">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="E48" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="F48" t="s">
-        <v>7</v>
+        <v>215</v>
       </c>
       <c r="G48" t="s">
         <v>8</v>
@@ -2232,13 +2214,13 @@
         <v>178</v>
       </c>
       <c r="B49" t="s">
-        <v>201</v>
+        <v>260</v>
       </c>
       <c r="D49" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="E49" t="s">
-        <v>212</v>
+        <v>269</v>
       </c>
       <c r="F49" t="s">
         <v>215</v>
@@ -2252,13 +2234,13 @@
         <v>178</v>
       </c>
       <c r="B50" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D50" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E50" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F50" t="s">
         <v>215</v>
@@ -2272,16 +2254,19 @@
         <v>178</v>
       </c>
       <c r="B51" t="s">
-        <v>266</v>
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>54</v>
       </c>
       <c r="D51" t="s">
-        <v>257</v>
+        <v>110</v>
       </c>
       <c r="E51" t="s">
-        <v>275</v>
+        <v>158</v>
       </c>
       <c r="F51" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="G51" t="s">
         <v>8</v>
@@ -2292,16 +2277,16 @@
         <v>178</v>
       </c>
       <c r="B52" t="s">
-        <v>194</v>
+        <v>55</v>
       </c>
       <c r="D52" t="s">
-        <v>183</v>
+        <v>111</v>
       </c>
       <c r="E52" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="F52" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="G52" t="s">
         <v>8</v>
@@ -2312,16 +2297,16 @@
         <v>178</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D53" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E53" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F53" t="s">
         <v>7</v>
@@ -2335,13 +2320,16 @@
         <v>178</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="C54" t="s">
+        <v>59</v>
       </c>
       <c r="D54" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E54" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F54" t="s">
         <v>7</v>
@@ -2355,19 +2343,16 @@
         <v>178</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55" t="s">
-        <v>57</v>
+        <v>202</v>
       </c>
       <c r="D55" t="s">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="E55" t="s">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="F55" t="s">
-        <v>7</v>
+        <v>215</v>
       </c>
       <c r="G55" t="s">
         <v>8</v>
@@ -2378,16 +2363,13 @@
         <v>178</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D56" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E56" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F56" t="s">
         <v>7</v>
@@ -2401,16 +2383,19 @@
         <v>178</v>
       </c>
       <c r="B57" t="s">
-        <v>202</v>
+        <v>61</v>
+      </c>
+      <c r="C57" t="s">
+        <v>62</v>
       </c>
       <c r="D57" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="E57" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="F57" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="G57" t="s">
         <v>8</v>
@@ -2421,16 +2406,16 @@
         <v>178</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="D58" t="s">
-        <v>114</v>
+        <v>252</v>
       </c>
       <c r="E58" t="s">
-        <v>162</v>
+        <v>265</v>
       </c>
       <c r="F58" t="s">
-        <v>7</v>
+        <v>215</v>
       </c>
       <c r="G58" t="s">
         <v>8</v>
@@ -2441,19 +2426,16 @@
         <v>178</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" t="s">
-        <v>62</v>
+        <v>237</v>
       </c>
       <c r="D59" t="s">
-        <v>115</v>
+        <v>238</v>
       </c>
       <c r="E59" t="s">
-        <v>163</v>
+        <v>239</v>
       </c>
       <c r="F59" t="s">
-        <v>7</v>
+        <v>215</v>
       </c>
       <c r="G59" t="s">
         <v>8</v>
@@ -2464,16 +2446,19 @@
         <v>178</v>
       </c>
       <c r="B60" t="s">
-        <v>267</v>
+        <v>63</v>
+      </c>
+      <c r="C60" t="s">
+        <v>64</v>
       </c>
       <c r="D60" t="s">
-        <v>258</v>
+        <v>116</v>
       </c>
       <c r="E60" t="s">
-        <v>271</v>
+        <v>164</v>
       </c>
       <c r="F60" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="G60" t="s">
         <v>8</v>
@@ -2484,13 +2469,13 @@
         <v>178</v>
       </c>
       <c r="B61" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D61" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="E61" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="F61" t="s">
         <v>215</v>
@@ -2504,16 +2489,16 @@
         <v>178</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D62" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E62" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F62" t="s">
         <v>7</v>
@@ -2527,16 +2512,19 @@
         <v>178</v>
       </c>
       <c r="B63" t="s">
-        <v>233</v>
+        <v>67</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
       </c>
       <c r="D63" t="s">
-        <v>224</v>
+        <v>118</v>
       </c>
       <c r="E63" t="s">
-        <v>242</v>
+        <v>166</v>
       </c>
       <c r="F63" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="G63" t="s">
         <v>8</v>
@@ -2547,16 +2535,16 @@
         <v>178</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D64" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E64" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F64" t="s">
         <v>7</v>
@@ -2570,16 +2558,16 @@
         <v>178</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D65" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E65" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F65" t="s">
         <v>7</v>
@@ -2593,16 +2581,16 @@
         <v>178</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D66" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E66" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F66" t="s">
         <v>7</v>
@@ -2616,16 +2604,16 @@
         <v>178</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D67" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E67" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F67" t="s">
         <v>7</v>
@@ -2639,16 +2627,13 @@
         <v>178</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
-      </c>
-      <c r="C68" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D68" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E68" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F68" t="s">
         <v>7</v>
@@ -2662,16 +2647,13 @@
         <v>178</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69" t="s">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="D69" t="s">
-        <v>122</v>
+        <v>217</v>
       </c>
       <c r="E69" t="s">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="F69" t="s">
         <v>7</v>
@@ -2685,13 +2667,13 @@
         <v>178</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="D70" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="E70" t="s">
-        <v>171</v>
+        <v>230</v>
       </c>
       <c r="F70" t="s">
         <v>7</v>
@@ -2705,13 +2687,16 @@
         <v>178</v>
       </c>
       <c r="B71" t="s">
-        <v>226</v>
+        <v>78</v>
+      </c>
+      <c r="C71" t="s">
+        <v>79</v>
       </c>
       <c r="D71" t="s">
-        <v>217</v>
+        <v>124</v>
       </c>
       <c r="E71" t="s">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="F71" t="s">
         <v>7</v>
@@ -2725,13 +2710,13 @@
         <v>178</v>
       </c>
       <c r="B72" t="s">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="D72" t="s">
-        <v>216</v>
+        <v>125</v>
       </c>
       <c r="E72" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="F72" t="s">
         <v>7</v>
@@ -2745,16 +2730,13 @@
         <v>178</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" t="s">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="D73" t="s">
-        <v>124</v>
+        <v>241</v>
       </c>
       <c r="E73" t="s">
-        <v>172</v>
+        <v>263</v>
       </c>
       <c r="F73" t="s">
         <v>7</v>
@@ -2768,13 +2750,16 @@
         <v>178</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="C74" t="s">
+        <v>82</v>
       </c>
       <c r="D74" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E74" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F74" t="s">
         <v>7</v>
@@ -2788,13 +2773,16 @@
         <v>178</v>
       </c>
       <c r="B75" t="s">
-        <v>249</v>
+        <v>83</v>
+      </c>
+      <c r="C75" t="s">
+        <v>84</v>
       </c>
       <c r="D75" t="s">
-        <v>247</v>
+        <v>127</v>
       </c>
       <c r="E75" t="s">
-        <v>269</v>
+        <v>175</v>
       </c>
       <c r="F75" t="s">
         <v>7</v>
@@ -2808,16 +2796,16 @@
         <v>178</v>
       </c>
       <c r="B76" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C76" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D76" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E76" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F76" t="s">
         <v>7</v>
@@ -2831,64 +2819,18 @@
         <v>178</v>
       </c>
       <c r="B77" t="s">
-        <v>83</v>
-      </c>
-      <c r="C77" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D77" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E77" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F77" t="s">
         <v>7</v>
       </c>
       <c r="G77" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>178</v>
-      </c>
-      <c r="B78" t="s">
-        <v>85</v>
-      </c>
-      <c r="C78" t="s">
-        <v>86</v>
-      </c>
-      <c r="D78" t="s">
-        <v>128</v>
-      </c>
-      <c r="E78" t="s">
-        <v>176</v>
-      </c>
-      <c r="F78" t="s">
-        <v>7</v>
-      </c>
-      <c r="G78" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>178</v>
-      </c>
-      <c r="B79" t="s">
-        <v>87</v>
-      </c>
-      <c r="D79" t="s">
-        <v>129</v>
-      </c>
-      <c r="E79" t="s">
-        <v>177</v>
-      </c>
-      <c r="F79" t="s">
-        <v>7</v>
-      </c>
-      <c r="G79" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Bibsam_tidskriftslistor/scifree_data_iop.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_iop.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_7A01F9B85FC45E18C16D0A9E96CF08FD57B1F690" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15FD222D-9DF3-4A68-A2F7-0E35F11D5223}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_7A01F9B85FC45E18C16D0A9E96CF08FD57B1F690" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA8BA79A-D657-445B-BB86-3852CC73EDEE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="284">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -292,9 +292,6 @@
     <t>Biofabrication</t>
   </si>
   <si>
-    <t>Bioinspiration and Biomimetics</t>
-  </si>
-  <si>
     <t>Biomedical Materials</t>
   </si>
   <si>
@@ -313,9 +310,6 @@
     <t>Fluid Dynamics Research</t>
   </si>
   <si>
-    <t xml:space="preserve">Inverse Problems </t>
-  </si>
-  <si>
     <t>Journal of Breath Research</t>
   </si>
   <si>
@@ -337,9 +331,6 @@
     <t>Journal of Physics D: Applied Physics</t>
   </si>
   <si>
-    <t xml:space="preserve">Journal of Physics G: Nuclear and Particle Physics </t>
-  </si>
-  <si>
     <t>Journal of Radiological Protection</t>
   </si>
   <si>
@@ -367,9 +358,6 @@
     <t>Nano Futures</t>
   </si>
   <si>
-    <t xml:space="preserve">Nanotechnology </t>
-  </si>
-  <si>
     <t>Nonlinearity</t>
   </si>
   <si>
@@ -385,9 +373,6 @@
     <t>Physics in Medicine &amp; Biology</t>
   </si>
   <si>
-    <t xml:space="preserve">Physiological Measurement </t>
-  </si>
-  <si>
     <t>Plasma Physics and Controlled Fusion</t>
   </si>
   <si>
@@ -397,9 +382,6 @@
     <t>Publications of the Astronomical Society of the Pacific</t>
   </si>
   <si>
-    <t>Quantum Science and Technology</t>
-  </si>
-  <si>
     <t>Semiconductor Science and Technology</t>
   </si>
   <si>
@@ -839,6 +821,57 @@
   </si>
   <si>
     <t>https://iopscience.iop.org/journal/2754-2734</t>
+  </si>
+  <si>
+    <t>2043-6262</t>
+  </si>
+  <si>
+    <t>Advances in Natural Sciences: Nanoscience and Nanotechnology</t>
+  </si>
+  <si>
+    <t>http://iopscience.iop.org/ansn</t>
+  </si>
+  <si>
+    <t>Bioinspiration &amp; Biomimetics</t>
+  </si>
+  <si>
+    <t> 2162-8777</t>
+  </si>
+  <si>
+    <t>2162-8769</t>
+  </si>
+  <si>
+    <t>ECS Journal of Solid State Science and Technology</t>
+  </si>
+  <si>
+    <t>https://iopscience.iop.org/journal/2162-8777</t>
+  </si>
+  <si>
+    <t>Inverse Problems</t>
+  </si>
+  <si>
+    <t>Journal of Physics G: Nuclear and Particle Physics</t>
+  </si>
+  <si>
+    <t>1945-7111</t>
+  </si>
+  <si>
+    <t>0013-4651</t>
+  </si>
+  <si>
+    <t>Journal of the Electrochemical Society</t>
+  </si>
+  <si>
+    <t>https://iopscience.iop.org/journal/1945-7111</t>
+  </si>
+  <si>
+    <t>Nanotechnology</t>
+  </si>
+  <si>
+    <t>Physiological Measurement</t>
+  </si>
+  <si>
+    <t>Quantum Science &amp; Technology</t>
   </si>
 </sst>
 </file>
@@ -894,16 +927,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00AFA8FE-D3AD-432F-B871-50182D0DDA7F}" name="Table1" displayName="Table1" ref="A1:G77" totalsRowShown="0">
-  <autoFilter ref="A1:G77" xr:uid="{00AFA8FE-D3AD-432F-B871-50182D0DDA7F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{10EDBF25-75CA-4FB7-A14A-6BF4B564DEF6}" name="Table2" displayName="Table2" ref="A1:G80" totalsRowShown="0">
+  <autoFilter ref="A1:G80" xr:uid="{10EDBF25-75CA-4FB7-A14A-6BF4B564DEF6}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{99020C15-9744-48B6-98BF-9F66FE94DAB0}" name="Imprint"/>
-    <tableColumn id="2" xr3:uid="{52442636-735F-47C8-98B3-5D41EF57C492}" name="ISSN Electronic"/>
-    <tableColumn id="3" xr3:uid="{EEFC8889-D168-49EE-8BBE-71164F09AE14}" name="ISSN Print"/>
-    <tableColumn id="4" xr3:uid="{64227223-BCDB-4088-8E85-C0C072E187BD}" name="Journal Name"/>
-    <tableColumn id="5" xr3:uid="{B8A97C0A-FE07-4D2A-B101-A686012AE3C1}" name="JournalURL"/>
-    <tableColumn id="6" xr3:uid="{84B9E659-D11C-49D2-ADAC-7C9161DAD2C3}" name="Publishing model"/>
-    <tableColumn id="7" xr3:uid="{C13DC9AE-5BA2-479D-92AF-7F02A124C152}" name="CC License options"/>
+    <tableColumn id="1" xr3:uid="{25451636-62A7-49CC-9A8A-006B2E4DCB19}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{90E81C64-733B-4D81-BCAE-E916703CB523}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{34C9838C-DB7C-44C2-8A73-961AB6D89028}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{5FDFFA4B-3F55-44AB-AA64-5E38911592F1}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{2894B0D8-C1AA-42ED-BFDD-B75E8D384292}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{170E927E-ADF4-429A-8F67-CC8C2C63F0DB}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{05620A47-B727-463A-BAF1-42B35F624FB7}" name="CC License options"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1171,11 +1204,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A090FA64-70CE-44AE-8B17-3D3B6DBDB02F}">
-  <dimension ref="A1:G77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6192A3F6-8973-4FF0-A4E6-7EA3789B1E59}">
+  <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,7 +1216,7 @@
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
@@ -1214,7 +1247,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -1223,7 +1256,7 @@
         <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -1234,19 +1267,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="D3" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="E3" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="F3" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -1254,22 +1287,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
+        <v>220</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>213</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -1277,19 +1307,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -1300,19 +1330,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>270</v>
       </c>
       <c r="E6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1323,16 +1353,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1343,19 +1376,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -1366,19 +1396,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s">
-        <v>253</v>
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>244</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
-        <v>272</v>
+        <v>129</v>
       </c>
       <c r="F9" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
@@ -1386,19 +1419,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D10" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F10" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G10" t="s">
         <v>8</v>
@@ -1406,16 +1439,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>271</v>
+      </c>
+      <c r="C11" t="s">
+        <v>272</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>273</v>
       </c>
       <c r="E11" t="s">
-        <v>181</v>
+        <v>274</v>
       </c>
       <c r="F11" t="s">
         <v>7</v>
@@ -1426,19 +1462,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B12" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="D12" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="E12" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="G12" t="s">
         <v>8</v>
@@ -1446,19 +1482,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="D13" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E13" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="F13" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="G13" t="s">
         <v>8</v>
@@ -1466,19 +1502,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D14" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="E14" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="F14" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
@@ -1486,19 +1522,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s">
-        <v>255</v>
+        <v>190</v>
       </c>
       <c r="D15" t="s">
-        <v>246</v>
+        <v>179</v>
       </c>
       <c r="E15" t="s">
-        <v>267</v>
+        <v>201</v>
       </c>
       <c r="F15" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G15" t="s">
         <v>8</v>
@@ -1506,19 +1542,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s">
-        <v>256</v>
+        <v>187</v>
       </c>
       <c r="D16" t="s">
-        <v>247</v>
+        <v>176</v>
       </c>
       <c r="E16" t="s">
-        <v>270</v>
+        <v>198</v>
       </c>
       <c r="F16" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G16" t="s">
         <v>8</v>
@@ -1526,19 +1562,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D17" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E17" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F17" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G17" t="s">
         <v>8</v>
@@ -1546,19 +1582,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D18" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F18" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G18" t="s">
         <v>8</v>
@@ -1566,19 +1602,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s">
+        <v>251</v>
+      </c>
+      <c r="D19" t="s">
         <v>242</v>
-      </c>
-      <c r="D19" t="s">
-        <v>240</v>
       </c>
       <c r="E19" t="s">
         <v>262</v>
       </c>
       <c r="F19" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="G19" t="s">
         <v>8</v>
@@ -1586,22 +1622,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>243</v>
       </c>
       <c r="E20" t="s">
-        <v>136</v>
+        <v>260</v>
       </c>
       <c r="F20" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="G20" t="s">
         <v>8</v>
@@ -1609,16 +1642,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>236</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>234</v>
       </c>
       <c r="E21" t="s">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="F21" t="s">
         <v>7</v>
@@ -1629,19 +1662,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F22" t="s">
         <v>7</v>
@@ -1652,16 +1685,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B23" t="s">
-        <v>227</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="E23" t="s">
-        <v>234</v>
+        <v>131</v>
       </c>
       <c r="F23" t="s">
         <v>7</v>
@@ -1672,19 +1705,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B24" t="s">
-        <v>259</v>
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>264</v>
+        <v>132</v>
       </c>
       <c r="F24" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="G24" t="s">
         <v>8</v>
@@ -1692,19 +1728,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
+        <v>221</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
+        <v>214</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>228</v>
       </c>
       <c r="F25" t="s">
         <v>7</v>
@@ -1715,19 +1748,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B26" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="D26" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="E26" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="F26" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="G26" t="s">
         <v>8</v>
@@ -1735,19 +1768,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>275</v>
       </c>
       <c r="E27" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F27" t="s">
         <v>7</v>
@@ -1758,16 +1791,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>222</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>215</v>
       </c>
       <c r="E28" t="s">
-        <v>142</v>
+        <v>229</v>
       </c>
       <c r="F28" t="s">
         <v>7</v>
@@ -1778,16 +1811,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F29" t="s">
         <v>7</v>
@@ -1798,19 +1834,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E30" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F30" t="s">
         <v>7</v>
@@ -1821,19 +1854,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E31" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F31" t="s">
         <v>7</v>
@@ -1844,19 +1874,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E32" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F32" t="s">
         <v>7</v>
@@ -1867,19 +1897,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="E33" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F33" t="s">
         <v>7</v>
@@ -1890,19 +1920,19 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="E34" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F34" t="s">
         <v>7</v>
@@ -1913,19 +1943,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B35" t="s">
-        <v>195</v>
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="E35" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="F35" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="G35" t="s">
         <v>8</v>
@@ -1933,19 +1966,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="E36" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F36" t="s">
         <v>7</v>
@@ -1956,22 +1989,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D37" t="s">
         <v>178</v>
       </c>
-      <c r="B37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" t="s">
-        <v>105</v>
-      </c>
       <c r="E37" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="F37" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="G37" t="s">
         <v>8</v>
@@ -1979,19 +2009,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B38" t="s">
-        <v>200</v>
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
+        <v>43</v>
       </c>
       <c r="D38" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="E38" t="s">
-        <v>211</v>
+        <v>145</v>
       </c>
       <c r="F38" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="G38" t="s">
         <v>8</v>
@@ -1999,19 +2032,19 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D39" t="s">
-        <v>144</v>
+        <v>276</v>
       </c>
       <c r="E39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F39" t="s">
         <v>7</v>
@@ -2022,19 +2055,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B40" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D40" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E40" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F40" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G40" t="s">
         <v>8</v>
@@ -2042,19 +2075,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B41" t="s">
-        <v>197</v>
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="E41" t="s">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="F41" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="G41" t="s">
         <v>8</v>
@@ -2062,19 +2098,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B42" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D42" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E42" t="s">
+        <v>204</v>
+      </c>
+      <c r="F42" t="s">
         <v>209</v>
-      </c>
-      <c r="F42" t="s">
-        <v>215</v>
       </c>
       <c r="G42" t="s">
         <v>8</v>
@@ -2082,22 +2118,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" t="s">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="D43" t="s">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="E43" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="F43" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="G43" t="s">
         <v>8</v>
@@ -2105,19 +2138,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="E44" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="F44" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="G44" t="s">
         <v>8</v>
@@ -2125,19 +2158,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D45" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E45" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F45" t="s">
         <v>7</v>
@@ -2148,19 +2181,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D46" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E46" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F46" t="s">
         <v>7</v>
@@ -2171,19 +2201,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B47" t="s">
-        <v>201</v>
+        <v>277</v>
+      </c>
+      <c r="C47" t="s">
+        <v>278</v>
       </c>
       <c r="D47" t="s">
-        <v>190</v>
+        <v>279</v>
       </c>
       <c r="E47" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="F47" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="G47" t="s">
         <v>8</v>
@@ -2191,19 +2224,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B48" t="s">
-        <v>203</v>
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>50</v>
       </c>
       <c r="D48" t="s">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c r="E48" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="F48" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="G48" t="s">
         <v>8</v>
@@ -2211,19 +2247,22 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B49" t="s">
-        <v>260</v>
+        <v>51</v>
+      </c>
+      <c r="C49" t="s">
+        <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>251</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
-        <v>269</v>
+        <v>151</v>
       </c>
       <c r="F49" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="G49" t="s">
         <v>8</v>
@@ -2231,19 +2270,19 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B50" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D50" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E50" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F50" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G50" t="s">
         <v>8</v>
@@ -2251,22 +2290,19 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" t="s">
-        <v>54</v>
+        <v>197</v>
       </c>
       <c r="D51" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="E51" t="s">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="F51" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="G51" t="s">
         <v>8</v>
@@ -2274,19 +2310,19 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>254</v>
       </c>
       <c r="D52" t="s">
-        <v>111</v>
+        <v>245</v>
       </c>
       <c r="E52" t="s">
-        <v>159</v>
+        <v>263</v>
       </c>
       <c r="F52" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="G52" t="s">
         <v>8</v>
@@ -2294,22 +2330,19 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
-      </c>
-      <c r="C53" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="E53" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="F53" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="G53" t="s">
         <v>8</v>
@@ -2317,19 +2350,19 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D54" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E54" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F54" t="s">
         <v>7</v>
@@ -2340,19 +2373,19 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B55" t="s">
-        <v>202</v>
+        <v>55</v>
       </c>
       <c r="D55" t="s">
-        <v>191</v>
+        <v>108</v>
       </c>
       <c r="E55" t="s">
-        <v>213</v>
+        <v>153</v>
       </c>
       <c r="F55" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="G55" t="s">
         <v>8</v>
@@ -2360,16 +2393,19 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="C56" t="s">
+        <v>57</v>
       </c>
       <c r="D56" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E56" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F56" t="s">
         <v>7</v>
@@ -2380,19 +2416,19 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D57" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E57" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F57" t="s">
         <v>7</v>
@@ -2403,19 +2439,19 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B58" t="s">
-        <v>261</v>
+        <v>196</v>
       </c>
       <c r="D58" t="s">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c r="E58" t="s">
-        <v>265</v>
+        <v>207</v>
       </c>
       <c r="F58" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G58" t="s">
         <v>8</v>
@@ -2423,19 +2459,19 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B59" t="s">
-        <v>237</v>
+        <v>60</v>
       </c>
       <c r="D59" t="s">
-        <v>238</v>
+        <v>111</v>
       </c>
       <c r="E59" t="s">
-        <v>239</v>
+        <v>156</v>
       </c>
       <c r="F59" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="G59" t="s">
         <v>8</v>
@@ -2443,19 +2479,19 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D60" t="s">
-        <v>116</v>
+        <v>281</v>
       </c>
       <c r="E60" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F60" t="s">
         <v>7</v>
@@ -2466,19 +2502,19 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B61" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="D61" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="E61" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="F61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G61" t="s">
         <v>8</v>
@@ -2486,22 +2522,19 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
-      </c>
-      <c r="C62" t="s">
-        <v>66</v>
+        <v>231</v>
       </c>
       <c r="D62" t="s">
-        <v>117</v>
+        <v>232</v>
       </c>
       <c r="E62" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="F62" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="G62" t="s">
         <v>8</v>
@@ -2509,19 +2542,19 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D63" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E63" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F63" t="s">
         <v>7</v>
@@ -2532,22 +2565,19 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
-      </c>
-      <c r="C64" t="s">
-        <v>70</v>
+        <v>223</v>
       </c>
       <c r="D64" t="s">
-        <v>119</v>
+        <v>216</v>
       </c>
       <c r="E64" t="s">
-        <v>167</v>
+        <v>230</v>
       </c>
       <c r="F64" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="G64" t="s">
         <v>8</v>
@@ -2555,19 +2585,19 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D65" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E65" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F65" t="s">
         <v>7</v>
@@ -2578,19 +2608,19 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D66" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E66" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F66" t="s">
         <v>7</v>
@@ -2601,19 +2631,19 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D67" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E67" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F67" t="s">
         <v>7</v>
@@ -2624,16 +2654,19 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>71</v>
+      </c>
+      <c r="C68" t="s">
+        <v>72</v>
       </c>
       <c r="D68" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E68" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F68" t="s">
         <v>7</v>
@@ -2644,16 +2677,19 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B69" t="s">
-        <v>224</v>
+        <v>73</v>
+      </c>
+      <c r="C69" t="s">
+        <v>74</v>
       </c>
       <c r="D69" t="s">
-        <v>217</v>
+        <v>282</v>
       </c>
       <c r="E69" t="s">
-        <v>231</v>
+        <v>163</v>
       </c>
       <c r="F69" t="s">
         <v>7</v>
@@ -2664,16 +2700,19 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B70" t="s">
-        <v>223</v>
+        <v>75</v>
+      </c>
+      <c r="C70" t="s">
+        <v>76</v>
       </c>
       <c r="D70" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="E70" t="s">
-        <v>230</v>
+        <v>164</v>
       </c>
       <c r="F70" t="s">
         <v>7</v>
@@ -2684,19 +2723,16 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
-      </c>
-      <c r="C71" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D71" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E71" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F71" t="s">
         <v>7</v>
@@ -2707,16 +2743,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="D72" t="s">
-        <v>125</v>
+        <v>211</v>
       </c>
       <c r="E72" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="F72" t="s">
         <v>7</v>
@@ -2727,16 +2763,16 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B73" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="D73" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="E73" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="F73" t="s">
         <v>7</v>
@@ -2747,19 +2783,19 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D74" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E74" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F74" t="s">
         <v>7</v>
@@ -2770,19 +2806,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
-      </c>
-      <c r="C75" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D75" t="s">
-        <v>127</v>
+        <v>283</v>
       </c>
       <c r="E75" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F75" t="s">
         <v>7</v>
@@ -2793,19 +2826,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
-      </c>
-      <c r="C76" t="s">
-        <v>86</v>
+        <v>237</v>
       </c>
       <c r="D76" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="E76" t="s">
-        <v>176</v>
+        <v>257</v>
       </c>
       <c r="F76" t="s">
         <v>7</v>
@@ -2816,21 +2846,90 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B77" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" t="s">
+        <v>82</v>
+      </c>
+      <c r="D77" t="s">
+        <v>120</v>
+      </c>
+      <c r="E77" t="s">
+        <v>168</v>
+      </c>
+      <c r="F77" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>172</v>
+      </c>
+      <c r="B78" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" t="s">
+        <v>121</v>
+      </c>
+      <c r="E78" t="s">
+        <v>169</v>
+      </c>
+      <c r="F78" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>172</v>
+      </c>
+      <c r="B79" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" t="s">
+        <v>86</v>
+      </c>
+      <c r="D79" t="s">
+        <v>122</v>
+      </c>
+      <c r="E79" t="s">
+        <v>170</v>
+      </c>
+      <c r="F79" t="s">
+        <v>7</v>
+      </c>
+      <c r="G79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>172</v>
+      </c>
+      <c r="B80" t="s">
         <v>87</v>
       </c>
-      <c r="D77" t="s">
-        <v>129</v>
-      </c>
-      <c r="E77" t="s">
-        <v>177</v>
-      </c>
-      <c r="F77" t="s">
-        <v>7</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="D80" t="s">
+        <v>123</v>
+      </c>
+      <c r="E80" t="s">
+        <v>171</v>
+      </c>
+      <c r="F80" t="s">
+        <v>7</v>
+      </c>
+      <c r="G80" t="s">
         <v>8</v>
       </c>
     </row>
